--- a/ThietKe/QuanLyKho.xlsx
+++ b/ThietKe/QuanLyKho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thi Binh\Desktop\BaoCao\ThietKe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE0385-0D83-4042-96B6-167C916D1466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C004DE1A-072C-4A19-AA8B-567859C8FBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B4CA3D99-DC2F-40ED-B67D-47EBBC80FAFE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B4CA3D99-DC2F-40ED-B67D-47EBBC80FAFE}"/>
   </bookViews>
   <sheets>
     <sheet name="QlKho" sheetId="3" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="ChiTietKho" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">ChiTietKho!$A$1:$AW$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">QlKho!$A$1:$AW$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Sửa!$A$1:$AW$170</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ThemKho!$A$1:$AW$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">ChiTietKho!$A$1:$AW$168</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">QlKho!$A$1:$AW$169</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Sửa!$A$1:$AW$168</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ThemKho!$A$1:$AW$169</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">XoaKho!$A$1:$AW$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -720,7 +720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1266,17 +1266,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1285,7 +1274,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1664,35 +1653,20 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1757,12 +1731,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1778,9 +1746,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1789,6 +1754,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1813,6 +1784,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1873,11 +1853,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2022,7 +1997,15 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="vi-VN" sz="1100"/>
-            <a:t>kho a</a:t>
+            <a:t>kho </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="vi-VN" sz="1100"/>
+            <a:t>a</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -3645,23 +3628,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>6200</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>23285</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114661</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DDBB590-9D3B-1AD8-2829-AAF1908D8CBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DB2743-9A61-A6F3-ADB3-E642D377DC6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,14 +3660,790 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="548640" y="1013460"/>
-          <a:ext cx="7254240" cy="5203040"/>
+          <a:off x="1706880" y="1158240"/>
+          <a:ext cx="4900085" cy="4160881"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>8031</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>22882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A8732D-20FF-4974-9B5E-A07A71F1AC90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="929640" y="15369540"/>
+          <a:ext cx="4747671" cy="251482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DAAFEB-465D-2336-744D-05E2B32DB8EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5440680" y="15567660"/>
+          <a:ext cx="617220" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2087880" cy="781240"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5453C3-C50B-0428-E66F-336F6C677BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5966460" y="15841980"/>
+          <a:ext cx="2087880" cy="781240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Khi click vào</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sửa sẽ truyền id về và load thông tin kho dựa vào id_kho đã chọn và mở form sửa thông tin kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>19240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3606FE1-A7EE-1004-5BBD-917D1E236EFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="16623220"/>
+          <a:ext cx="22860" cy="430340"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD937F92-B019-00F7-B082-5C94A981B708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6774180" y="17068800"/>
+          <a:ext cx="678180" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>118444</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0CC12EA-8660-8C35-8F63-60A5816308AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051560" y="16451580"/>
+          <a:ext cx="2849880" cy="1611964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>131540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054A37C9-E995-48DE-8ED5-2BE6607E956B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="0"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2476500" y="16232600"/>
+          <a:ext cx="3489960" cy="218980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="708660" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22178CA8-E746-527F-BF5B-1181D16E391C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920240" y="16733520"/>
+          <a:ext cx="708660" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kho abc</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1295400" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A369F136-3E13-43FA-8875-E24F9E33A3AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="17015460"/>
+          <a:ext cx="1295400" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kho@gmail.com</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1295400" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431E905-DACA-4D9A-83A7-B771C7177976}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="17297400"/>
+          <a:ext cx="1295400" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>quận</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> 9</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1295400" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C831E1F-2E38-4B40-826C-6DA895163BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="17564100"/>
+          <a:ext cx="1295400" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>03323212</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1676400" cy="609013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5786CB2-820E-4C73-8713-F56BD69701A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4564380" y="16977360"/>
+          <a:ext cx="1676400" cy="609013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Nhập</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> thông tin cần sửa và xác nhận để kiểm tra và trả kết quả và lưu về csdl</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>89702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>114007</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930FFBD1-DB70-438B-ACEF-A33903568270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6225540" y="17196602"/>
+          <a:ext cx="662940" cy="24305"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>150662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4392BD-18BF-4560-8C0E-349CB500E8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901440" y="17257562"/>
+          <a:ext cx="662940" cy="24305"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3911,6 +4670,382 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>46131</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>45742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582C5C11-CECE-B50F-28E4-D4AF049053A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150620" y="15057120"/>
+          <a:ext cx="4747671" cy="251482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>107024</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF076B8B-901D-1EFC-0228-4C45717E27C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="15826740"/>
+          <a:ext cx="3970364" cy="2286198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BAB0DD-C17C-ABE2-2CC6-914300163D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4709160" y="15201900"/>
+          <a:ext cx="1043940" cy="563880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1356360" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410B6E43-FEE5-94B2-F9EF-C9C05FEFE2FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="15506700"/>
+          <a:ext cx="1356360" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Khi click vào</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> chi tiết sẽ truyền id kho và load dữ liệu các vị trí đã được thêm vào kho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E1DAA3-4EAA-1C11-0D5D-51745AD14BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="17145000"/>
+          <a:ext cx="960120" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Vitikho</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>23826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EA664B-F51B-4870-AA25-7E41B75C5B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="0"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6469380" y="16460166"/>
+          <a:ext cx="297180" cy="684834"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133522</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A64197-0256-7BC2-CAA1-12A4B36F1A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3242482" y="15209520"/>
+          <a:ext cx="1504778" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4213,10 +5348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9525A956-7E7F-4EA5-91FA-F0A55B761EDF}">
-  <dimension ref="A1:BF172"/>
+  <dimension ref="A1:BF171"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A108" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AG131" sqref="AG131"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A117" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170:AW170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -4229,187 +5364,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="155" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="155" t="s">
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="156" t="s">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="162" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="144" t="s">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="174" t="s">
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="144" t="s">
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="177">
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="172">
         <v>44936</v>
       </c>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="179"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="180" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="146"/>
+      <c r="AK2" s="146"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="143"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="182"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="164" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="170" t="s">
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="167" t="s">
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="173"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="141"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -5180,187 +6315,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="155" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="155" t="s">
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="156" t="s">
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="158"/>
-      <c r="AA41" s="162" t="s">
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="147"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="147"/>
-      <c r="AH41" s="147"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="147"/>
-      <c r="AL41" s="148"/>
-      <c r="AM41" s="144" t="s">
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="174" t="s">
+      <c r="AN41" s="171"/>
+      <c r="AO41" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="175"/>
-      <c r="AQ41" s="176"/>
-      <c r="AR41" s="144" t="s">
+      <c r="AP41" s="168"/>
+      <c r="AQ41" s="169"/>
+      <c r="AR41" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="145"/>
-      <c r="AT41" s="177">
+      <c r="AS41" s="171"/>
+      <c r="AT41" s="172">
         <v>44936</v>
       </c>
-      <c r="AU41" s="178"/>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="179"/>
+      <c r="AU41" s="173"/>
+      <c r="AV41" s="173"/>
+      <c r="AW41" s="174"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="150"/>
-      <c r="R42" s="150"/>
-      <c r="S42" s="150"/>
-      <c r="T42" s="150"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="159"/>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="163"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="180" t="s">
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
+      <c r="T42" s="146"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="155"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="146"/>
+      <c r="AC42" s="146"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="146"/>
+      <c r="AF42" s="146"/>
+      <c r="AG42" s="146"/>
+      <c r="AH42" s="146"/>
+      <c r="AI42" s="146"/>
+      <c r="AJ42" s="146"/>
+      <c r="AK42" s="146"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="181"/>
-      <c r="AO42" s="182"/>
-      <c r="AP42" s="183"/>
-      <c r="AQ42" s="184"/>
-      <c r="AR42" s="180" t="s">
+      <c r="AN42" s="176"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="178"/>
+      <c r="AQ42" s="179"/>
+      <c r="AR42" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="181"/>
-      <c r="AT42" s="141"/>
-      <c r="AU42" s="142"/>
-      <c r="AV42" s="142"/>
-      <c r="AW42" s="143"/>
+      <c r="AS42" s="176"/>
+      <c r="AT42" s="180"/>
+      <c r="AU42" s="181"/>
+      <c r="AV42" s="181"/>
+      <c r="AW42" s="182"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="164" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="150"/>
+      <c r="V43" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="165"/>
-      <c r="X43" s="165"/>
-      <c r="Y43" s="165"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="167" t="s">
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="168"/>
-      <c r="AD43" s="168"/>
-      <c r="AE43" s="168"/>
-      <c r="AF43" s="168"/>
-      <c r="AG43" s="169"/>
-      <c r="AH43" s="170" t="s">
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="171"/>
-      <c r="AJ43" s="171"/>
-      <c r="AK43" s="171"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="167" t="s">
+      <c r="AI43" s="165"/>
+      <c r="AJ43" s="165"/>
+      <c r="AK43" s="165"/>
+      <c r="AL43" s="166"/>
+      <c r="AM43" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="168"/>
-      <c r="AO43" s="168"/>
-      <c r="AP43" s="168"/>
-      <c r="AQ43" s="168"/>
-      <c r="AR43" s="168"/>
-      <c r="AS43" s="168"/>
-      <c r="AT43" s="168"/>
-      <c r="AU43" s="168"/>
-      <c r="AV43" s="168"/>
-      <c r="AW43" s="173"/>
+      <c r="AN43" s="140"/>
+      <c r="AO43" s="140"/>
+      <c r="AP43" s="140"/>
+      <c r="AQ43" s="140"/>
+      <c r="AR43" s="140"/>
+      <c r="AS43" s="140"/>
+      <c r="AT43" s="140"/>
+      <c r="AU43" s="140"/>
+      <c r="AV43" s="140"/>
+      <c r="AW43" s="141"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -7079,187 +8214,187 @@
       <c r="AW78" s="7"/>
     </row>
     <row r="79" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="147"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="155" t="s">
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="147"/>
-      <c r="M79" s="147"/>
-      <c r="N79" s="147"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="155" t="s">
+      <c r="K79" s="143"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="144"/>
+      <c r="P79" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="147"/>
-      <c r="R79" s="147"/>
-      <c r="S79" s="147"/>
-      <c r="T79" s="147"/>
-      <c r="U79" s="148"/>
-      <c r="V79" s="156" t="s">
+      <c r="Q79" s="143"/>
+      <c r="R79" s="143"/>
+      <c r="S79" s="143"/>
+      <c r="T79" s="143"/>
+      <c r="U79" s="144"/>
+      <c r="V79" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W79" s="157"/>
-      <c r="X79" s="157"/>
-      <c r="Y79" s="157"/>
-      <c r="Z79" s="158"/>
-      <c r="AA79" s="162" t="s">
+      <c r="W79" s="153"/>
+      <c r="X79" s="153"/>
+      <c r="Y79" s="153"/>
+      <c r="Z79" s="154"/>
+      <c r="AA79" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB79" s="147"/>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="147"/>
-      <c r="AE79" s="147"/>
-      <c r="AF79" s="147"/>
-      <c r="AG79" s="147"/>
-      <c r="AH79" s="147"/>
-      <c r="AI79" s="147"/>
-      <c r="AJ79" s="147"/>
-      <c r="AK79" s="147"/>
-      <c r="AL79" s="148"/>
-      <c r="AM79" s="144" t="s">
+      <c r="AB79" s="143"/>
+      <c r="AC79" s="143"/>
+      <c r="AD79" s="143"/>
+      <c r="AE79" s="143"/>
+      <c r="AF79" s="143"/>
+      <c r="AG79" s="143"/>
+      <c r="AH79" s="143"/>
+      <c r="AI79" s="143"/>
+      <c r="AJ79" s="143"/>
+      <c r="AK79" s="143"/>
+      <c r="AL79" s="144"/>
+      <c r="AM79" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN79" s="145"/>
-      <c r="AO79" s="174" t="s">
+      <c r="AN79" s="171"/>
+      <c r="AO79" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP79" s="175"/>
-      <c r="AQ79" s="176"/>
-      <c r="AR79" s="144" t="s">
+      <c r="AP79" s="168"/>
+      <c r="AQ79" s="169"/>
+      <c r="AR79" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="145"/>
-      <c r="AT79" s="177">
+      <c r="AS79" s="171"/>
+      <c r="AT79" s="172">
         <v>44936</v>
       </c>
-      <c r="AU79" s="178"/>
-      <c r="AV79" s="178"/>
-      <c r="AW79" s="179"/>
+      <c r="AU79" s="173"/>
+      <c r="AV79" s="173"/>
+      <c r="AW79" s="174"/>
     </row>
     <row r="80" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A80" s="149"/>
-      <c r="B80" s="150"/>
-      <c r="C80" s="150"/>
-      <c r="D80" s="150"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="150"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="149"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="149"/>
-      <c r="Q80" s="150"/>
-      <c r="R80" s="150"/>
-      <c r="S80" s="150"/>
-      <c r="T80" s="150"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="159"/>
-      <c r="W80" s="160"/>
-      <c r="X80" s="160"/>
-      <c r="Y80" s="160"/>
-      <c r="Z80" s="161"/>
-      <c r="AA80" s="163"/>
-      <c r="AB80" s="150"/>
-      <c r="AC80" s="150"/>
-      <c r="AD80" s="150"/>
-      <c r="AE80" s="150"/>
-      <c r="AF80" s="150"/>
-      <c r="AG80" s="150"/>
-      <c r="AH80" s="150"/>
-      <c r="AI80" s="150"/>
-      <c r="AJ80" s="150"/>
-      <c r="AK80" s="150"/>
-      <c r="AL80" s="151"/>
-      <c r="AM80" s="180" t="s">
+      <c r="A80" s="145"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="145"/>
+      <c r="Q80" s="146"/>
+      <c r="R80" s="146"/>
+      <c r="S80" s="146"/>
+      <c r="T80" s="146"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="155"/>
+      <c r="W80" s="156"/>
+      <c r="X80" s="156"/>
+      <c r="Y80" s="156"/>
+      <c r="Z80" s="157"/>
+      <c r="AA80" s="159"/>
+      <c r="AB80" s="146"/>
+      <c r="AC80" s="146"/>
+      <c r="AD80" s="146"/>
+      <c r="AE80" s="146"/>
+      <c r="AF80" s="146"/>
+      <c r="AG80" s="146"/>
+      <c r="AH80" s="146"/>
+      <c r="AI80" s="146"/>
+      <c r="AJ80" s="146"/>
+      <c r="AK80" s="146"/>
+      <c r="AL80" s="147"/>
+      <c r="AM80" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN80" s="181"/>
-      <c r="AO80" s="182"/>
-      <c r="AP80" s="183"/>
-      <c r="AQ80" s="184"/>
-      <c r="AR80" s="180" t="s">
+      <c r="AN80" s="176"/>
+      <c r="AO80" s="177"/>
+      <c r="AP80" s="178"/>
+      <c r="AQ80" s="179"/>
+      <c r="AR80" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS80" s="181"/>
-      <c r="AT80" s="141"/>
-      <c r="AU80" s="142"/>
-      <c r="AV80" s="142"/>
-      <c r="AW80" s="143"/>
+      <c r="AS80" s="176"/>
+      <c r="AT80" s="180"/>
+      <c r="AU80" s="181"/>
+      <c r="AV80" s="181"/>
+      <c r="AW80" s="182"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="153"/>
-      <c r="N81" s="153"/>
-      <c r="O81" s="154"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="153"/>
-      <c r="R81" s="153"/>
-      <c r="S81" s="153"/>
-      <c r="T81" s="153"/>
-      <c r="U81" s="154"/>
-      <c r="V81" s="164" t="s">
+      <c r="A81" s="148"/>
+      <c r="B81" s="149"/>
+      <c r="C81" s="149"/>
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="149"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="149"/>
+      <c r="S81" s="149"/>
+      <c r="T81" s="149"/>
+      <c r="U81" s="150"/>
+      <c r="V81" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="165"/>
-      <c r="X81" s="165"/>
-      <c r="Y81" s="165"/>
-      <c r="Z81" s="166"/>
-      <c r="AA81" s="167" t="s">
+      <c r="W81" s="161"/>
+      <c r="X81" s="161"/>
+      <c r="Y81" s="161"/>
+      <c r="Z81" s="162"/>
+      <c r="AA81" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="168"/>
-      <c r="AC81" s="168"/>
-      <c r="AD81" s="168"/>
-      <c r="AE81" s="168"/>
-      <c r="AF81" s="168"/>
-      <c r="AG81" s="169"/>
-      <c r="AH81" s="170" t="s">
+      <c r="AB81" s="140"/>
+      <c r="AC81" s="140"/>
+      <c r="AD81" s="140"/>
+      <c r="AE81" s="140"/>
+      <c r="AF81" s="140"/>
+      <c r="AG81" s="163"/>
+      <c r="AH81" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI81" s="171"/>
-      <c r="AJ81" s="171"/>
-      <c r="AK81" s="171"/>
-      <c r="AL81" s="172"/>
-      <c r="AM81" s="167" t="s">
+      <c r="AI81" s="165"/>
+      <c r="AJ81" s="165"/>
+      <c r="AK81" s="165"/>
+      <c r="AL81" s="166"/>
+      <c r="AM81" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN81" s="168"/>
-      <c r="AO81" s="168"/>
-      <c r="AP81" s="168"/>
-      <c r="AQ81" s="168"/>
-      <c r="AR81" s="168"/>
-      <c r="AS81" s="168"/>
-      <c r="AT81" s="168"/>
-      <c r="AU81" s="168"/>
-      <c r="AV81" s="168"/>
-      <c r="AW81" s="173"/>
+      <c r="AN81" s="140"/>
+      <c r="AO81" s="140"/>
+      <c r="AP81" s="140"/>
+      <c r="AQ81" s="140"/>
+      <c r="AR81" s="140"/>
+      <c r="AS81" s="140"/>
+      <c r="AT81" s="140"/>
+      <c r="AU81" s="140"/>
+      <c r="AV81" s="140"/>
+      <c r="AW81" s="141"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A82" s="3"/>
@@ -8394,187 +9529,187 @@
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A119" s="146" t="s">
+      <c r="A119" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="147"/>
-      <c r="C119" s="147"/>
-      <c r="D119" s="147"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="147"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="148"/>
-      <c r="J119" s="155" t="s">
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="143"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="144"/>
+      <c r="J119" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="147"/>
-      <c r="L119" s="147"/>
-      <c r="M119" s="147"/>
-      <c r="N119" s="147"/>
-      <c r="O119" s="148"/>
-      <c r="P119" s="155" t="s">
+      <c r="K119" s="143"/>
+      <c r="L119" s="143"/>
+      <c r="M119" s="143"/>
+      <c r="N119" s="143"/>
+      <c r="O119" s="144"/>
+      <c r="P119" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="147"/>
-      <c r="R119" s="147"/>
-      <c r="S119" s="147"/>
-      <c r="T119" s="147"/>
-      <c r="U119" s="148"/>
-      <c r="V119" s="156" t="s">
+      <c r="Q119" s="143"/>
+      <c r="R119" s="143"/>
+      <c r="S119" s="143"/>
+      <c r="T119" s="143"/>
+      <c r="U119" s="144"/>
+      <c r="V119" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W119" s="157"/>
-      <c r="X119" s="157"/>
-      <c r="Y119" s="157"/>
-      <c r="Z119" s="158"/>
-      <c r="AA119" s="162" t="s">
+      <c r="W119" s="153"/>
+      <c r="X119" s="153"/>
+      <c r="Y119" s="153"/>
+      <c r="Z119" s="154"/>
+      <c r="AA119" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB119" s="147"/>
-      <c r="AC119" s="147"/>
-      <c r="AD119" s="147"/>
-      <c r="AE119" s="147"/>
-      <c r="AF119" s="147"/>
-      <c r="AG119" s="147"/>
-      <c r="AH119" s="147"/>
-      <c r="AI119" s="147"/>
-      <c r="AJ119" s="147"/>
-      <c r="AK119" s="147"/>
-      <c r="AL119" s="148"/>
-      <c r="AM119" s="144" t="s">
+      <c r="AB119" s="143"/>
+      <c r="AC119" s="143"/>
+      <c r="AD119" s="143"/>
+      <c r="AE119" s="143"/>
+      <c r="AF119" s="143"/>
+      <c r="AG119" s="143"/>
+      <c r="AH119" s="143"/>
+      <c r="AI119" s="143"/>
+      <c r="AJ119" s="143"/>
+      <c r="AK119" s="143"/>
+      <c r="AL119" s="144"/>
+      <c r="AM119" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN119" s="145"/>
-      <c r="AO119" s="174" t="s">
+      <c r="AN119" s="171"/>
+      <c r="AO119" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP119" s="175"/>
-      <c r="AQ119" s="176"/>
-      <c r="AR119" s="144" t="s">
+      <c r="AP119" s="168"/>
+      <c r="AQ119" s="169"/>
+      <c r="AR119" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS119" s="145"/>
-      <c r="AT119" s="177">
+      <c r="AS119" s="171"/>
+      <c r="AT119" s="172">
         <v>44936</v>
       </c>
-      <c r="AU119" s="178"/>
-      <c r="AV119" s="178"/>
-      <c r="AW119" s="179"/>
+      <c r="AU119" s="173"/>
+      <c r="AV119" s="173"/>
+      <c r="AW119" s="174"/>
     </row>
     <row r="120" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A120" s="149"/>
-      <c r="B120" s="150"/>
-      <c r="C120" s="150"/>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="151"/>
-      <c r="J120" s="149"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="150"/>
-      <c r="N120" s="150"/>
-      <c r="O120" s="151"/>
-      <c r="P120" s="149"/>
-      <c r="Q120" s="150"/>
-      <c r="R120" s="150"/>
-      <c r="S120" s="150"/>
-      <c r="T120" s="150"/>
-      <c r="U120" s="151"/>
-      <c r="V120" s="159"/>
-      <c r="W120" s="160"/>
-      <c r="X120" s="160"/>
-      <c r="Y120" s="160"/>
-      <c r="Z120" s="161"/>
-      <c r="AA120" s="163"/>
-      <c r="AB120" s="150"/>
-      <c r="AC120" s="150"/>
-      <c r="AD120" s="150"/>
-      <c r="AE120" s="150"/>
-      <c r="AF120" s="150"/>
-      <c r="AG120" s="150"/>
-      <c r="AH120" s="150"/>
-      <c r="AI120" s="150"/>
-      <c r="AJ120" s="150"/>
-      <c r="AK120" s="150"/>
-      <c r="AL120" s="151"/>
-      <c r="AM120" s="180" t="s">
+      <c r="A120" s="145"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="146"/>
+      <c r="I120" s="147"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
+      <c r="L120" s="146"/>
+      <c r="M120" s="146"/>
+      <c r="N120" s="146"/>
+      <c r="O120" s="147"/>
+      <c r="P120" s="145"/>
+      <c r="Q120" s="146"/>
+      <c r="R120" s="146"/>
+      <c r="S120" s="146"/>
+      <c r="T120" s="146"/>
+      <c r="U120" s="147"/>
+      <c r="V120" s="155"/>
+      <c r="W120" s="156"/>
+      <c r="X120" s="156"/>
+      <c r="Y120" s="156"/>
+      <c r="Z120" s="157"/>
+      <c r="AA120" s="159"/>
+      <c r="AB120" s="146"/>
+      <c r="AC120" s="146"/>
+      <c r="AD120" s="146"/>
+      <c r="AE120" s="146"/>
+      <c r="AF120" s="146"/>
+      <c r="AG120" s="146"/>
+      <c r="AH120" s="146"/>
+      <c r="AI120" s="146"/>
+      <c r="AJ120" s="146"/>
+      <c r="AK120" s="146"/>
+      <c r="AL120" s="147"/>
+      <c r="AM120" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN120" s="181"/>
-      <c r="AO120" s="182"/>
-      <c r="AP120" s="183"/>
-      <c r="AQ120" s="184"/>
-      <c r="AR120" s="180" t="s">
+      <c r="AN120" s="176"/>
+      <c r="AO120" s="177"/>
+      <c r="AP120" s="178"/>
+      <c r="AQ120" s="179"/>
+      <c r="AR120" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS120" s="181"/>
-      <c r="AT120" s="141"/>
-      <c r="AU120" s="142"/>
-      <c r="AV120" s="142"/>
-      <c r="AW120" s="143"/>
+      <c r="AS120" s="176"/>
+      <c r="AT120" s="180"/>
+      <c r="AU120" s="181"/>
+      <c r="AV120" s="181"/>
+      <c r="AW120" s="182"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A121" s="152"/>
-      <c r="B121" s="153"/>
-      <c r="C121" s="153"/>
-      <c r="D121" s="153"/>
-      <c r="E121" s="153"/>
-      <c r="F121" s="153"/>
-      <c r="G121" s="153"/>
-      <c r="H121" s="153"/>
-      <c r="I121" s="154"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="153"/>
-      <c r="L121" s="153"/>
-      <c r="M121" s="153"/>
-      <c r="N121" s="153"/>
-      <c r="O121" s="154"/>
-      <c r="P121" s="152"/>
-      <c r="Q121" s="153"/>
-      <c r="R121" s="153"/>
-      <c r="S121" s="153"/>
-      <c r="T121" s="153"/>
-      <c r="U121" s="154"/>
-      <c r="V121" s="164" t="s">
+      <c r="A121" s="148"/>
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+      <c r="F121" s="149"/>
+      <c r="G121" s="149"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
+      <c r="L121" s="149"/>
+      <c r="M121" s="149"/>
+      <c r="N121" s="149"/>
+      <c r="O121" s="150"/>
+      <c r="P121" s="148"/>
+      <c r="Q121" s="149"/>
+      <c r="R121" s="149"/>
+      <c r="S121" s="149"/>
+      <c r="T121" s="149"/>
+      <c r="U121" s="150"/>
+      <c r="V121" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W121" s="165"/>
-      <c r="X121" s="165"/>
-      <c r="Y121" s="165"/>
-      <c r="Z121" s="166"/>
-      <c r="AA121" s="167" t="s">
+      <c r="W121" s="161"/>
+      <c r="X121" s="161"/>
+      <c r="Y121" s="161"/>
+      <c r="Z121" s="162"/>
+      <c r="AA121" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB121" s="168"/>
-      <c r="AC121" s="168"/>
-      <c r="AD121" s="168"/>
-      <c r="AE121" s="168"/>
-      <c r="AF121" s="168"/>
-      <c r="AG121" s="169"/>
-      <c r="AH121" s="170" t="s">
+      <c r="AB121" s="140"/>
+      <c r="AC121" s="140"/>
+      <c r="AD121" s="140"/>
+      <c r="AE121" s="140"/>
+      <c r="AF121" s="140"/>
+      <c r="AG121" s="163"/>
+      <c r="AH121" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI121" s="171"/>
-      <c r="AJ121" s="171"/>
-      <c r="AK121" s="171"/>
-      <c r="AL121" s="172"/>
-      <c r="AM121" s="167" t="s">
+      <c r="AI121" s="165"/>
+      <c r="AJ121" s="165"/>
+      <c r="AK121" s="165"/>
+      <c r="AL121" s="166"/>
+      <c r="AM121" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN121" s="168"/>
-      <c r="AO121" s="168"/>
-      <c r="AP121" s="168"/>
-      <c r="AQ121" s="168"/>
-      <c r="AR121" s="168"/>
-      <c r="AS121" s="168"/>
-      <c r="AT121" s="168"/>
-      <c r="AU121" s="168"/>
-      <c r="AV121" s="168"/>
-      <c r="AW121" s="173"/>
+      <c r="AN121" s="140"/>
+      <c r="AO121" s="140"/>
+      <c r="AP121" s="140"/>
+      <c r="AQ121" s="140"/>
+      <c r="AR121" s="140"/>
+      <c r="AS121" s="140"/>
+      <c r="AT121" s="140"/>
+      <c r="AU121" s="140"/>
+      <c r="AV121" s="140"/>
+      <c r="AW121" s="141"/>
     </row>
     <row r="122" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A122" s="3"/>
@@ -11020,12 +12155,7 @@
       <c r="AV169" s="6"/>
       <c r="AW169" s="7"/>
     </row>
-    <row r="170" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="135"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="137"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="138"/>
+    <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -11068,10 +12198,9 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
-      <c r="AV170" s="137"/>
-      <c r="AW170" s="139"/>
-    </row>
-    <row r="171" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
+      <c r="AX170" s="2"/>
+    </row>
+    <row r="171" spans="1:50" ht="13.5" customHeight="1">
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -11114,51 +12243,6 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
       <c r="AU171" s="2"/>
-      <c r="AX171" s="2"/>
-    </row>
-    <row r="172" spans="1:50" ht="13.5" customHeight="1">
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2"/>
-      <c r="AD172" s="2"/>
-      <c r="AE172" s="2"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2"/>
-      <c r="AI172" s="2"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
-      <c r="AN172" s="2"/>
-      <c r="AO172" s="2"/>
-      <c r="AP172" s="2"/>
-      <c r="AQ172" s="2"/>
-      <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
-      <c r="AT172" s="2"/>
-      <c r="AU172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -11211,6 +12295,8 @@
     <mergeCell ref="AM120:AN120"/>
     <mergeCell ref="AO120:AQ120"/>
     <mergeCell ref="AR120:AS120"/>
+    <mergeCell ref="AT120:AW120"/>
+    <mergeCell ref="AM119:AN119"/>
     <mergeCell ref="AO79:AQ79"/>
     <mergeCell ref="AR79:AS79"/>
     <mergeCell ref="AT79:AW79"/>
@@ -11219,8 +12305,7 @@
     <mergeCell ref="AR80:AS80"/>
     <mergeCell ref="AT80:AW80"/>
     <mergeCell ref="AM79:AN79"/>
-    <mergeCell ref="AT120:AW120"/>
-    <mergeCell ref="AM119:AN119"/>
+    <mergeCell ref="AM121:AW121"/>
     <mergeCell ref="A119:I121"/>
     <mergeCell ref="J119:O121"/>
     <mergeCell ref="P119:U121"/>
@@ -11229,7 +12314,6 @@
     <mergeCell ref="V121:Z121"/>
     <mergeCell ref="AA121:AG121"/>
     <mergeCell ref="AH121:AL121"/>
-    <mergeCell ref="AM121:AW121"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -11245,10 +12329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288515AF-7192-4E45-8822-1A2A67D7F3F7}">
-  <dimension ref="A1:BF172"/>
+  <dimension ref="A1:BF171"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A138" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160:AT162"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A158" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X167" sqref="X167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -11261,187 +12345,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="155" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="155" t="s">
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="156" t="s">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="162" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="144" t="s">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="174" t="s">
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="144" t="s">
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="177">
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="172">
         <v>44936</v>
       </c>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="179"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="180" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="146"/>
+      <c r="AK2" s="146"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="143"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="182"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="164" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="170" t="s">
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="167" t="s">
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="173"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="141"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -12212,187 +13296,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="155" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="155" t="s">
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="156" t="s">
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="158"/>
-      <c r="AA41" s="162" t="s">
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="147"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="147"/>
-      <c r="AH41" s="147"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="147"/>
-      <c r="AL41" s="148"/>
-      <c r="AM41" s="144" t="s">
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="174" t="s">
+      <c r="AN41" s="171"/>
+      <c r="AO41" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="175"/>
-      <c r="AQ41" s="176"/>
-      <c r="AR41" s="144" t="s">
+      <c r="AP41" s="168"/>
+      <c r="AQ41" s="169"/>
+      <c r="AR41" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="145"/>
-      <c r="AT41" s="177">
+      <c r="AS41" s="171"/>
+      <c r="AT41" s="172">
         <v>44936</v>
       </c>
-      <c r="AU41" s="178"/>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="179"/>
+      <c r="AU41" s="173"/>
+      <c r="AV41" s="173"/>
+      <c r="AW41" s="174"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="150"/>
-      <c r="R42" s="150"/>
-      <c r="S42" s="150"/>
-      <c r="T42" s="150"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="159"/>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="163"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="180" t="s">
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
+      <c r="T42" s="146"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="155"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="146"/>
+      <c r="AC42" s="146"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="146"/>
+      <c r="AF42" s="146"/>
+      <c r="AG42" s="146"/>
+      <c r="AH42" s="146"/>
+      <c r="AI42" s="146"/>
+      <c r="AJ42" s="146"/>
+      <c r="AK42" s="146"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="181"/>
-      <c r="AO42" s="182"/>
-      <c r="AP42" s="183"/>
-      <c r="AQ42" s="184"/>
-      <c r="AR42" s="180" t="s">
+      <c r="AN42" s="176"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="178"/>
+      <c r="AQ42" s="179"/>
+      <c r="AR42" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="181"/>
-      <c r="AT42" s="141"/>
-      <c r="AU42" s="142"/>
-      <c r="AV42" s="142"/>
-      <c r="AW42" s="143"/>
+      <c r="AS42" s="176"/>
+      <c r="AT42" s="180"/>
+      <c r="AU42" s="181"/>
+      <c r="AV42" s="181"/>
+      <c r="AW42" s="182"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="164" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="150"/>
+      <c r="V43" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="165"/>
-      <c r="X43" s="165"/>
-      <c r="Y43" s="165"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="167" t="s">
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="168"/>
-      <c r="AD43" s="168"/>
-      <c r="AE43" s="168"/>
-      <c r="AF43" s="168"/>
-      <c r="AG43" s="169"/>
-      <c r="AH43" s="170" t="s">
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="171"/>
-      <c r="AJ43" s="171"/>
-      <c r="AK43" s="171"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="167" t="s">
+      <c r="AI43" s="165"/>
+      <c r="AJ43" s="165"/>
+      <c r="AK43" s="165"/>
+      <c r="AL43" s="166"/>
+      <c r="AM43" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="168"/>
-      <c r="AO43" s="168"/>
-      <c r="AP43" s="168"/>
-      <c r="AQ43" s="168"/>
-      <c r="AR43" s="168"/>
-      <c r="AS43" s="168"/>
-      <c r="AT43" s="168"/>
-      <c r="AU43" s="168"/>
-      <c r="AV43" s="168"/>
-      <c r="AW43" s="173"/>
+      <c r="AN43" s="140"/>
+      <c r="AO43" s="140"/>
+      <c r="AP43" s="140"/>
+      <c r="AQ43" s="140"/>
+      <c r="AR43" s="140"/>
+      <c r="AS43" s="140"/>
+      <c r="AT43" s="140"/>
+      <c r="AU43" s="140"/>
+      <c r="AV43" s="140"/>
+      <c r="AW43" s="141"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -14049,187 +15133,187 @@
       <c r="AW78" s="7"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="147"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="155" t="s">
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="147"/>
-      <c r="M79" s="147"/>
-      <c r="N79" s="147"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="155" t="s">
+      <c r="K79" s="143"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="144"/>
+      <c r="P79" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="147"/>
-      <c r="R79" s="147"/>
-      <c r="S79" s="147"/>
-      <c r="T79" s="147"/>
-      <c r="U79" s="148"/>
-      <c r="V79" s="156" t="s">
+      <c r="Q79" s="143"/>
+      <c r="R79" s="143"/>
+      <c r="S79" s="143"/>
+      <c r="T79" s="143"/>
+      <c r="U79" s="144"/>
+      <c r="V79" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W79" s="157"/>
-      <c r="X79" s="157"/>
-      <c r="Y79" s="157"/>
-      <c r="Z79" s="158"/>
-      <c r="AA79" s="162" t="s">
+      <c r="W79" s="153"/>
+      <c r="X79" s="153"/>
+      <c r="Y79" s="153"/>
+      <c r="Z79" s="154"/>
+      <c r="AA79" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB79" s="147"/>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="147"/>
-      <c r="AE79" s="147"/>
-      <c r="AF79" s="147"/>
-      <c r="AG79" s="147"/>
-      <c r="AH79" s="147"/>
-      <c r="AI79" s="147"/>
-      <c r="AJ79" s="147"/>
-      <c r="AK79" s="147"/>
-      <c r="AL79" s="148"/>
-      <c r="AM79" s="144" t="s">
+      <c r="AB79" s="143"/>
+      <c r="AC79" s="143"/>
+      <c r="AD79" s="143"/>
+      <c r="AE79" s="143"/>
+      <c r="AF79" s="143"/>
+      <c r="AG79" s="143"/>
+      <c r="AH79" s="143"/>
+      <c r="AI79" s="143"/>
+      <c r="AJ79" s="143"/>
+      <c r="AK79" s="143"/>
+      <c r="AL79" s="144"/>
+      <c r="AM79" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN79" s="145"/>
-      <c r="AO79" s="174" t="s">
+      <c r="AN79" s="171"/>
+      <c r="AO79" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP79" s="175"/>
-      <c r="AQ79" s="176"/>
-      <c r="AR79" s="144" t="s">
+      <c r="AP79" s="168"/>
+      <c r="AQ79" s="169"/>
+      <c r="AR79" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="145"/>
-      <c r="AT79" s="177">
+      <c r="AS79" s="171"/>
+      <c r="AT79" s="172">
         <v>44936</v>
       </c>
-      <c r="AU79" s="178"/>
-      <c r="AV79" s="178"/>
-      <c r="AW79" s="179"/>
+      <c r="AU79" s="173"/>
+      <c r="AV79" s="173"/>
+      <c r="AW79" s="174"/>
     </row>
     <row r="80" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A80" s="149"/>
-      <c r="B80" s="150"/>
-      <c r="C80" s="150"/>
-      <c r="D80" s="150"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="150"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="149"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="149"/>
-      <c r="Q80" s="150"/>
-      <c r="R80" s="150"/>
-      <c r="S80" s="150"/>
-      <c r="T80" s="150"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="159"/>
-      <c r="W80" s="160"/>
-      <c r="X80" s="160"/>
-      <c r="Y80" s="160"/>
-      <c r="Z80" s="161"/>
-      <c r="AA80" s="163"/>
-      <c r="AB80" s="150"/>
-      <c r="AC80" s="150"/>
-      <c r="AD80" s="150"/>
-      <c r="AE80" s="150"/>
-      <c r="AF80" s="150"/>
-      <c r="AG80" s="150"/>
-      <c r="AH80" s="150"/>
-      <c r="AI80" s="150"/>
-      <c r="AJ80" s="150"/>
-      <c r="AK80" s="150"/>
-      <c r="AL80" s="151"/>
-      <c r="AM80" s="180" t="s">
+      <c r="A80" s="145"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="145"/>
+      <c r="Q80" s="146"/>
+      <c r="R80" s="146"/>
+      <c r="S80" s="146"/>
+      <c r="T80" s="146"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="155"/>
+      <c r="W80" s="156"/>
+      <c r="X80" s="156"/>
+      <c r="Y80" s="156"/>
+      <c r="Z80" s="157"/>
+      <c r="AA80" s="159"/>
+      <c r="AB80" s="146"/>
+      <c r="AC80" s="146"/>
+      <c r="AD80" s="146"/>
+      <c r="AE80" s="146"/>
+      <c r="AF80" s="146"/>
+      <c r="AG80" s="146"/>
+      <c r="AH80" s="146"/>
+      <c r="AI80" s="146"/>
+      <c r="AJ80" s="146"/>
+      <c r="AK80" s="146"/>
+      <c r="AL80" s="147"/>
+      <c r="AM80" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN80" s="181"/>
-      <c r="AO80" s="182"/>
-      <c r="AP80" s="183"/>
-      <c r="AQ80" s="184"/>
-      <c r="AR80" s="180" t="s">
+      <c r="AN80" s="176"/>
+      <c r="AO80" s="177"/>
+      <c r="AP80" s="178"/>
+      <c r="AQ80" s="179"/>
+      <c r="AR80" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS80" s="181"/>
-      <c r="AT80" s="141"/>
-      <c r="AU80" s="142"/>
-      <c r="AV80" s="142"/>
-      <c r="AW80" s="143"/>
+      <c r="AS80" s="176"/>
+      <c r="AT80" s="180"/>
+      <c r="AU80" s="181"/>
+      <c r="AV80" s="181"/>
+      <c r="AW80" s="182"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="153"/>
-      <c r="N81" s="153"/>
-      <c r="O81" s="154"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="153"/>
-      <c r="R81" s="153"/>
-      <c r="S81" s="153"/>
-      <c r="T81" s="153"/>
-      <c r="U81" s="154"/>
-      <c r="V81" s="164" t="s">
+      <c r="A81" s="148"/>
+      <c r="B81" s="149"/>
+      <c r="C81" s="149"/>
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="149"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="149"/>
+      <c r="S81" s="149"/>
+      <c r="T81" s="149"/>
+      <c r="U81" s="150"/>
+      <c r="V81" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="165"/>
-      <c r="X81" s="165"/>
-      <c r="Y81" s="165"/>
-      <c r="Z81" s="166"/>
-      <c r="AA81" s="167" t="s">
+      <c r="W81" s="161"/>
+      <c r="X81" s="161"/>
+      <c r="Y81" s="161"/>
+      <c r="Z81" s="162"/>
+      <c r="AA81" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="168"/>
-      <c r="AC81" s="168"/>
-      <c r="AD81" s="168"/>
-      <c r="AE81" s="168"/>
-      <c r="AF81" s="168"/>
-      <c r="AG81" s="169"/>
-      <c r="AH81" s="170" t="s">
+      <c r="AB81" s="140"/>
+      <c r="AC81" s="140"/>
+      <c r="AD81" s="140"/>
+      <c r="AE81" s="140"/>
+      <c r="AF81" s="140"/>
+      <c r="AG81" s="163"/>
+      <c r="AH81" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI81" s="171"/>
-      <c r="AJ81" s="171"/>
-      <c r="AK81" s="171"/>
-      <c r="AL81" s="172"/>
-      <c r="AM81" s="167" t="s">
+      <c r="AI81" s="165"/>
+      <c r="AJ81" s="165"/>
+      <c r="AK81" s="165"/>
+      <c r="AL81" s="166"/>
+      <c r="AM81" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN81" s="168"/>
-      <c r="AO81" s="168"/>
-      <c r="AP81" s="168"/>
-      <c r="AQ81" s="168"/>
-      <c r="AR81" s="168"/>
-      <c r="AS81" s="168"/>
-      <c r="AT81" s="168"/>
-      <c r="AU81" s="168"/>
-      <c r="AV81" s="168"/>
-      <c r="AW81" s="173"/>
+      <c r="AN81" s="140"/>
+      <c r="AO81" s="140"/>
+      <c r="AP81" s="140"/>
+      <c r="AQ81" s="140"/>
+      <c r="AR81" s="140"/>
+      <c r="AS81" s="140"/>
+      <c r="AT81" s="140"/>
+      <c r="AU81" s="140"/>
+      <c r="AV81" s="140"/>
+      <c r="AW81" s="141"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A82" s="3"/>
@@ -15343,187 +16427,187 @@
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A119" s="146" t="s">
+      <c r="A119" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="147"/>
-      <c r="C119" s="147"/>
-      <c r="D119" s="147"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="147"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="148"/>
-      <c r="J119" s="155" t="s">
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="143"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="144"/>
+      <c r="J119" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="147"/>
-      <c r="L119" s="147"/>
-      <c r="M119" s="147"/>
-      <c r="N119" s="147"/>
-      <c r="O119" s="148"/>
-      <c r="P119" s="155" t="s">
+      <c r="K119" s="143"/>
+      <c r="L119" s="143"/>
+      <c r="M119" s="143"/>
+      <c r="N119" s="143"/>
+      <c r="O119" s="144"/>
+      <c r="P119" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="147"/>
-      <c r="R119" s="147"/>
-      <c r="S119" s="147"/>
-      <c r="T119" s="147"/>
-      <c r="U119" s="148"/>
-      <c r="V119" s="156" t="s">
+      <c r="Q119" s="143"/>
+      <c r="R119" s="143"/>
+      <c r="S119" s="143"/>
+      <c r="T119" s="143"/>
+      <c r="U119" s="144"/>
+      <c r="V119" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W119" s="157"/>
-      <c r="X119" s="157"/>
-      <c r="Y119" s="157"/>
-      <c r="Z119" s="158"/>
-      <c r="AA119" s="162" t="s">
+      <c r="W119" s="153"/>
+      <c r="X119" s="153"/>
+      <c r="Y119" s="153"/>
+      <c r="Z119" s="154"/>
+      <c r="AA119" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB119" s="147"/>
-      <c r="AC119" s="147"/>
-      <c r="AD119" s="147"/>
-      <c r="AE119" s="147"/>
-      <c r="AF119" s="147"/>
-      <c r="AG119" s="147"/>
-      <c r="AH119" s="147"/>
-      <c r="AI119" s="147"/>
-      <c r="AJ119" s="147"/>
-      <c r="AK119" s="147"/>
-      <c r="AL119" s="148"/>
-      <c r="AM119" s="144" t="s">
+      <c r="AB119" s="143"/>
+      <c r="AC119" s="143"/>
+      <c r="AD119" s="143"/>
+      <c r="AE119" s="143"/>
+      <c r="AF119" s="143"/>
+      <c r="AG119" s="143"/>
+      <c r="AH119" s="143"/>
+      <c r="AI119" s="143"/>
+      <c r="AJ119" s="143"/>
+      <c r="AK119" s="143"/>
+      <c r="AL119" s="144"/>
+      <c r="AM119" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN119" s="145"/>
-      <c r="AO119" s="174" t="s">
+      <c r="AN119" s="171"/>
+      <c r="AO119" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP119" s="175"/>
-      <c r="AQ119" s="176"/>
-      <c r="AR119" s="144" t="s">
+      <c r="AP119" s="168"/>
+      <c r="AQ119" s="169"/>
+      <c r="AR119" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS119" s="145"/>
-      <c r="AT119" s="177">
+      <c r="AS119" s="171"/>
+      <c r="AT119" s="172">
         <v>44936</v>
       </c>
-      <c r="AU119" s="178"/>
-      <c r="AV119" s="178"/>
-      <c r="AW119" s="179"/>
+      <c r="AU119" s="173"/>
+      <c r="AV119" s="173"/>
+      <c r="AW119" s="174"/>
     </row>
     <row r="120" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A120" s="149"/>
-      <c r="B120" s="150"/>
-      <c r="C120" s="150"/>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="151"/>
-      <c r="J120" s="149"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="150"/>
-      <c r="N120" s="150"/>
-      <c r="O120" s="151"/>
-      <c r="P120" s="149"/>
-      <c r="Q120" s="150"/>
-      <c r="R120" s="150"/>
-      <c r="S120" s="150"/>
-      <c r="T120" s="150"/>
-      <c r="U120" s="151"/>
-      <c r="V120" s="159"/>
-      <c r="W120" s="160"/>
-      <c r="X120" s="160"/>
-      <c r="Y120" s="160"/>
-      <c r="Z120" s="161"/>
-      <c r="AA120" s="163"/>
-      <c r="AB120" s="150"/>
-      <c r="AC120" s="150"/>
-      <c r="AD120" s="150"/>
-      <c r="AE120" s="150"/>
-      <c r="AF120" s="150"/>
-      <c r="AG120" s="150"/>
-      <c r="AH120" s="150"/>
-      <c r="AI120" s="150"/>
-      <c r="AJ120" s="150"/>
-      <c r="AK120" s="150"/>
-      <c r="AL120" s="151"/>
-      <c r="AM120" s="180" t="s">
+      <c r="A120" s="145"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="146"/>
+      <c r="I120" s="147"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
+      <c r="L120" s="146"/>
+      <c r="M120" s="146"/>
+      <c r="N120" s="146"/>
+      <c r="O120" s="147"/>
+      <c r="P120" s="145"/>
+      <c r="Q120" s="146"/>
+      <c r="R120" s="146"/>
+      <c r="S120" s="146"/>
+      <c r="T120" s="146"/>
+      <c r="U120" s="147"/>
+      <c r="V120" s="155"/>
+      <c r="W120" s="156"/>
+      <c r="X120" s="156"/>
+      <c r="Y120" s="156"/>
+      <c r="Z120" s="157"/>
+      <c r="AA120" s="159"/>
+      <c r="AB120" s="146"/>
+      <c r="AC120" s="146"/>
+      <c r="AD120" s="146"/>
+      <c r="AE120" s="146"/>
+      <c r="AF120" s="146"/>
+      <c r="AG120" s="146"/>
+      <c r="AH120" s="146"/>
+      <c r="AI120" s="146"/>
+      <c r="AJ120" s="146"/>
+      <c r="AK120" s="146"/>
+      <c r="AL120" s="147"/>
+      <c r="AM120" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN120" s="181"/>
-      <c r="AO120" s="182"/>
-      <c r="AP120" s="183"/>
-      <c r="AQ120" s="184"/>
-      <c r="AR120" s="180" t="s">
+      <c r="AN120" s="176"/>
+      <c r="AO120" s="177"/>
+      <c r="AP120" s="178"/>
+      <c r="AQ120" s="179"/>
+      <c r="AR120" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS120" s="181"/>
-      <c r="AT120" s="141"/>
-      <c r="AU120" s="142"/>
-      <c r="AV120" s="142"/>
-      <c r="AW120" s="143"/>
+      <c r="AS120" s="176"/>
+      <c r="AT120" s="180"/>
+      <c r="AU120" s="181"/>
+      <c r="AV120" s="181"/>
+      <c r="AW120" s="182"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A121" s="152"/>
-      <c r="B121" s="153"/>
-      <c r="C121" s="153"/>
-      <c r="D121" s="153"/>
-      <c r="E121" s="153"/>
-      <c r="F121" s="153"/>
-      <c r="G121" s="153"/>
-      <c r="H121" s="153"/>
-      <c r="I121" s="154"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="153"/>
-      <c r="L121" s="153"/>
-      <c r="M121" s="153"/>
-      <c r="N121" s="153"/>
-      <c r="O121" s="154"/>
-      <c r="P121" s="152"/>
-      <c r="Q121" s="153"/>
-      <c r="R121" s="153"/>
-      <c r="S121" s="153"/>
-      <c r="T121" s="153"/>
-      <c r="U121" s="154"/>
-      <c r="V121" s="164" t="s">
+      <c r="A121" s="148"/>
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+      <c r="F121" s="149"/>
+      <c r="G121" s="149"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
+      <c r="L121" s="149"/>
+      <c r="M121" s="149"/>
+      <c r="N121" s="149"/>
+      <c r="O121" s="150"/>
+      <c r="P121" s="148"/>
+      <c r="Q121" s="149"/>
+      <c r="R121" s="149"/>
+      <c r="S121" s="149"/>
+      <c r="T121" s="149"/>
+      <c r="U121" s="150"/>
+      <c r="V121" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W121" s="165"/>
-      <c r="X121" s="165"/>
-      <c r="Y121" s="165"/>
-      <c r="Z121" s="166"/>
-      <c r="AA121" s="167" t="s">
+      <c r="W121" s="161"/>
+      <c r="X121" s="161"/>
+      <c r="Y121" s="161"/>
+      <c r="Z121" s="162"/>
+      <c r="AA121" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB121" s="168"/>
-      <c r="AC121" s="168"/>
-      <c r="AD121" s="168"/>
-      <c r="AE121" s="168"/>
-      <c r="AF121" s="168"/>
-      <c r="AG121" s="169"/>
-      <c r="AH121" s="170" t="s">
+      <c r="AB121" s="140"/>
+      <c r="AC121" s="140"/>
+      <c r="AD121" s="140"/>
+      <c r="AE121" s="140"/>
+      <c r="AF121" s="140"/>
+      <c r="AG121" s="163"/>
+      <c r="AH121" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI121" s="171"/>
-      <c r="AJ121" s="171"/>
-      <c r="AK121" s="171"/>
-      <c r="AL121" s="172"/>
-      <c r="AM121" s="167" t="s">
+      <c r="AI121" s="165"/>
+      <c r="AJ121" s="165"/>
+      <c r="AK121" s="165"/>
+      <c r="AL121" s="166"/>
+      <c r="AM121" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN121" s="168"/>
-      <c r="AO121" s="168"/>
-      <c r="AP121" s="168"/>
-      <c r="AQ121" s="168"/>
-      <c r="AR121" s="168"/>
-      <c r="AS121" s="168"/>
-      <c r="AT121" s="168"/>
-      <c r="AU121" s="168"/>
-      <c r="AV121" s="168"/>
-      <c r="AW121" s="173"/>
+      <c r="AN121" s="140"/>
+      <c r="AO121" s="140"/>
+      <c r="AP121" s="140"/>
+      <c r="AQ121" s="140"/>
+      <c r="AR121" s="140"/>
+      <c r="AS121" s="140"/>
+      <c r="AT121" s="140"/>
+      <c r="AU121" s="140"/>
+      <c r="AV121" s="140"/>
+      <c r="AW121" s="141"/>
     </row>
     <row r="122" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A122" s="3"/>
@@ -17075,68 +18159,68 @@
     <row r="152" spans="1:51" ht="13.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="191" t="s">
+      <c r="E152" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="F152" s="192"/>
-      <c r="G152" s="192"/>
-      <c r="H152" s="192"/>
-      <c r="I152" s="192"/>
-      <c r="J152" s="192"/>
-      <c r="K152" s="193"/>
-      <c r="L152" s="194" t="s">
+      <c r="F152" s="190"/>
+      <c r="G152" s="190"/>
+      <c r="H152" s="190"/>
+      <c r="I152" s="190"/>
+      <c r="J152" s="190"/>
+      <c r="K152" s="191"/>
+      <c r="L152" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="M152" s="195"/>
-      <c r="N152" s="195"/>
-      <c r="O152" s="195"/>
-      <c r="P152" s="195"/>
-      <c r="Q152" s="195"/>
-      <c r="R152" s="195"/>
-      <c r="S152" s="195"/>
-      <c r="T152" s="195"/>
-      <c r="U152" s="195"/>
-      <c r="V152" s="195"/>
-      <c r="W152" s="195"/>
-      <c r="X152" s="195"/>
-      <c r="Y152" s="195"/>
-      <c r="Z152" s="195"/>
-      <c r="AA152" s="195"/>
-      <c r="AB152" s="195"/>
-      <c r="AC152" s="195"/>
-      <c r="AD152" s="195"/>
-      <c r="AE152" s="195"/>
-      <c r="AF152" s="195"/>
-      <c r="AG152" s="195"/>
-      <c r="AH152" s="195"/>
-      <c r="AI152" s="195"/>
-      <c r="AJ152" s="195"/>
-      <c r="AK152" s="195"/>
-      <c r="AL152" s="195"/>
-      <c r="AM152" s="195"/>
-      <c r="AN152" s="195"/>
-      <c r="AO152" s="195"/>
-      <c r="AP152" s="195"/>
-      <c r="AQ152" s="195"/>
-      <c r="AR152" s="195"/>
-      <c r="AS152" s="195"/>
-      <c r="AT152" s="195"/>
-      <c r="AU152" s="196"/>
+      <c r="M152" s="193"/>
+      <c r="N152" s="193"/>
+      <c r="O152" s="193"/>
+      <c r="P152" s="193"/>
+      <c r="Q152" s="193"/>
+      <c r="R152" s="193"/>
+      <c r="S152" s="193"/>
+      <c r="T152" s="193"/>
+      <c r="U152" s="193"/>
+      <c r="V152" s="193"/>
+      <c r="W152" s="193"/>
+      <c r="X152" s="193"/>
+      <c r="Y152" s="193"/>
+      <c r="Z152" s="193"/>
+      <c r="AA152" s="193"/>
+      <c r="AB152" s="193"/>
+      <c r="AC152" s="193"/>
+      <c r="AD152" s="193"/>
+      <c r="AE152" s="193"/>
+      <c r="AF152" s="193"/>
+      <c r="AG152" s="193"/>
+      <c r="AH152" s="193"/>
+      <c r="AI152" s="193"/>
+      <c r="AJ152" s="193"/>
+      <c r="AK152" s="193"/>
+      <c r="AL152" s="193"/>
+      <c r="AM152" s="193"/>
+      <c r="AN152" s="193"/>
+      <c r="AO152" s="193"/>
+      <c r="AP152" s="193"/>
+      <c r="AQ152" s="193"/>
+      <c r="AR152" s="193"/>
+      <c r="AS152" s="193"/>
+      <c r="AT152" s="193"/>
+      <c r="AU152" s="194"/>
       <c r="AV152" s="6"/>
       <c r="AW152" s="7"/>
     </row>
     <row r="153" spans="1:51" ht="13.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="197" t="s">
+      <c r="E153" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="F153" s="198"/>
-      <c r="G153" s="198"/>
-      <c r="H153" s="198"/>
-      <c r="I153" s="198"/>
-      <c r="J153" s="198"/>
-      <c r="K153" s="199"/>
+      <c r="F153" s="196"/>
+      <c r="G153" s="196"/>
+      <c r="H153" s="196"/>
+      <c r="I153" s="196"/>
+      <c r="J153" s="196"/>
+      <c r="K153" s="197"/>
       <c r="L153" s="116"/>
       <c r="M153" s="93"/>
       <c r="N153" s="93" t="s">
@@ -17185,13 +18269,13 @@
     <row r="154" spans="1:51" ht="13.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="200"/>
-      <c r="F154" s="201"/>
-      <c r="G154" s="201"/>
-      <c r="H154" s="201"/>
-      <c r="I154" s="201"/>
-      <c r="J154" s="201"/>
-      <c r="K154" s="202"/>
+      <c r="E154" s="198"/>
+      <c r="F154" s="199"/>
+      <c r="G154" s="199"/>
+      <c r="H154" s="199"/>
+      <c r="I154" s="199"/>
+      <c r="J154" s="199"/>
+      <c r="K154" s="200"/>
       <c r="L154" s="117"/>
       <c r="M154" s="118"/>
       <c r="N154" s="118" t="s">
@@ -17240,13 +18324,13 @@
     <row r="155" spans="1:51" ht="13.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="197"/>
-      <c r="F155" s="198"/>
-      <c r="G155" s="198"/>
-      <c r="H155" s="198"/>
-      <c r="I155" s="198"/>
-      <c r="J155" s="198"/>
-      <c r="K155" s="199"/>
+      <c r="E155" s="195"/>
+      <c r="F155" s="196"/>
+      <c r="G155" s="196"/>
+      <c r="H155" s="196"/>
+      <c r="I155" s="196"/>
+      <c r="J155" s="196"/>
+      <c r="K155" s="197"/>
       <c r="L155" s="116"/>
       <c r="M155" s="93"/>
       <c r="N155" s="93" t="s">
@@ -17295,13 +18379,13 @@
     <row r="156" spans="1:51" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="200"/>
-      <c r="F156" s="201"/>
-      <c r="G156" s="201"/>
-      <c r="H156" s="201"/>
-      <c r="I156" s="201"/>
-      <c r="J156" s="201"/>
-      <c r="K156" s="202"/>
+      <c r="E156" s="198"/>
+      <c r="F156" s="199"/>
+      <c r="G156" s="199"/>
+      <c r="H156" s="199"/>
+      <c r="I156" s="199"/>
+      <c r="J156" s="199"/>
+      <c r="K156" s="200"/>
       <c r="L156" s="117"/>
       <c r="M156" s="118"/>
       <c r="N156" s="118" t="s">
@@ -17507,48 +18591,48 @@
       <c r="F160" s="123"/>
       <c r="G160" s="123"/>
       <c r="H160" s="124"/>
-      <c r="I160" s="191" t="s">
+      <c r="I160" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="J160" s="192"/>
-      <c r="K160" s="192"/>
-      <c r="L160" s="192"/>
-      <c r="M160" s="192"/>
-      <c r="N160" s="192"/>
-      <c r="O160" s="192"/>
-      <c r="P160" s="192"/>
-      <c r="Q160" s="192"/>
-      <c r="R160" s="192"/>
-      <c r="S160" s="192"/>
-      <c r="T160" s="192"/>
-      <c r="U160" s="192"/>
-      <c r="V160" s="192"/>
-      <c r="W160" s="192"/>
-      <c r="X160" s="192"/>
-      <c r="Y160" s="192"/>
-      <c r="Z160" s="192"/>
-      <c r="AA160" s="192"/>
-      <c r="AB160" s="192"/>
-      <c r="AC160" s="192"/>
-      <c r="AD160" s="192"/>
-      <c r="AE160" s="192"/>
-      <c r="AF160" s="192"/>
-      <c r="AG160" s="192"/>
-      <c r="AH160" s="192"/>
-      <c r="AI160" s="193"/>
-      <c r="AJ160" s="191" t="s">
+      <c r="J160" s="190"/>
+      <c r="K160" s="190"/>
+      <c r="L160" s="190"/>
+      <c r="M160" s="190"/>
+      <c r="N160" s="190"/>
+      <c r="O160" s="190"/>
+      <c r="P160" s="190"/>
+      <c r="Q160" s="190"/>
+      <c r="R160" s="190"/>
+      <c r="S160" s="190"/>
+      <c r="T160" s="190"/>
+      <c r="U160" s="190"/>
+      <c r="V160" s="190"/>
+      <c r="W160" s="190"/>
+      <c r="X160" s="190"/>
+      <c r="Y160" s="190"/>
+      <c r="Z160" s="190"/>
+      <c r="AA160" s="190"/>
+      <c r="AB160" s="190"/>
+      <c r="AC160" s="190"/>
+      <c r="AD160" s="190"/>
+      <c r="AE160" s="190"/>
+      <c r="AF160" s="190"/>
+      <c r="AG160" s="190"/>
+      <c r="AH160" s="190"/>
+      <c r="AI160" s="191"/>
+      <c r="AJ160" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="AK160" s="192"/>
-      <c r="AL160" s="192"/>
-      <c r="AM160" s="192"/>
-      <c r="AN160" s="192"/>
-      <c r="AO160" s="192"/>
-      <c r="AP160" s="192"/>
-      <c r="AQ160" s="192"/>
-      <c r="AR160" s="192"/>
-      <c r="AS160" s="192"/>
-      <c r="AT160" s="193"/>
+      <c r="AK160" s="190"/>
+      <c r="AL160" s="190"/>
+      <c r="AM160" s="190"/>
+      <c r="AN160" s="190"/>
+      <c r="AO160" s="190"/>
+      <c r="AP160" s="190"/>
+      <c r="AQ160" s="190"/>
+      <c r="AR160" s="190"/>
+      <c r="AS160" s="190"/>
+      <c r="AT160" s="191"/>
       <c r="AU160" s="83"/>
       <c r="AV160" s="6"/>
       <c r="AW160" s="7"/>
@@ -17556,12 +18640,12 @@
     <row r="161" spans="1:50" ht="13.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="D161" s="84"/>
-      <c r="E161" s="185" t="s">
+      <c r="E161" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="F161" s="186"/>
-      <c r="G161" s="186"/>
-      <c r="H161" s="187"/>
+      <c r="F161" s="184"/>
+      <c r="G161" s="184"/>
+      <c r="H161" s="185"/>
       <c r="I161" s="125" t="s">
         <v>83</v>
       </c>
@@ -17611,12 +18695,12 @@
     <row r="162" spans="1:50" ht="13.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="D162" s="84"/>
-      <c r="E162" s="188" t="s">
+      <c r="E162" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="F162" s="189"/>
-      <c r="G162" s="189"/>
-      <c r="H162" s="190"/>
+      <c r="F162" s="187"/>
+      <c r="G162" s="187"/>
+      <c r="H162" s="188"/>
       <c r="I162" s="129" t="s">
         <v>85</v>
       </c>
@@ -18008,12 +19092,7 @@
       <c r="AV169" s="6"/>
       <c r="AW169" s="7"/>
     </row>
-    <row r="170" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="135"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="137"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="138"/>
+    <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -18056,10 +19135,9 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
-      <c r="AV170" s="137"/>
-      <c r="AW170" s="139"/>
-    </row>
-    <row r="171" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
+      <c r="AX170" s="2"/>
+    </row>
+    <row r="171" spans="1:50" ht="13.5" customHeight="1">
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -18102,51 +19180,6 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
       <c r="AU171" s="2"/>
-      <c r="AX171" s="2"/>
-    </row>
-    <row r="172" spans="1:50" ht="13.5" customHeight="1">
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2"/>
-      <c r="AD172" s="2"/>
-      <c r="AE172" s="2"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2"/>
-      <c r="AI172" s="2"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
-      <c r="AN172" s="2"/>
-      <c r="AO172" s="2"/>
-      <c r="AP172" s="2"/>
-      <c r="AQ172" s="2"/>
-      <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
-      <c r="AT172" s="2"/>
-      <c r="AU172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -18241,10 +19274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384DE88E-D6C3-4E0A-B5FA-06560E60C38A}">
-  <dimension ref="A1:BF172"/>
+  <dimension ref="A1:BF170"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A135" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U151" sqref="U151"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A163" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AG175" sqref="AG175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -18257,187 +19290,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="155" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="155" t="s">
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="156" t="s">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="162" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="144" t="s">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="174" t="s">
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="144" t="s">
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="177">
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="172">
         <v>44936</v>
       </c>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="179"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="180" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="146"/>
+      <c r="AK2" s="146"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="143"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="182"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="164" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="170" t="s">
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="167" t="s">
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="173"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="141"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -19208,187 +20241,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="155" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="155" t="s">
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="156" t="s">
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="158"/>
-      <c r="AA41" s="162" t="s">
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="147"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="147"/>
-      <c r="AH41" s="147"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="147"/>
-      <c r="AL41" s="148"/>
-      <c r="AM41" s="144" t="s">
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="174" t="s">
+      <c r="AN41" s="171"/>
+      <c r="AO41" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="175"/>
-      <c r="AQ41" s="176"/>
-      <c r="AR41" s="144" t="s">
+      <c r="AP41" s="168"/>
+      <c r="AQ41" s="169"/>
+      <c r="AR41" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="145"/>
-      <c r="AT41" s="177">
+      <c r="AS41" s="171"/>
+      <c r="AT41" s="172">
         <v>44936</v>
       </c>
-      <c r="AU41" s="178"/>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="179"/>
+      <c r="AU41" s="173"/>
+      <c r="AV41" s="173"/>
+      <c r="AW41" s="174"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="150"/>
-      <c r="R42" s="150"/>
-      <c r="S42" s="150"/>
-      <c r="T42" s="150"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="159"/>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="163"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="180" t="s">
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
+      <c r="T42" s="146"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="155"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="146"/>
+      <c r="AC42" s="146"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="146"/>
+      <c r="AF42" s="146"/>
+      <c r="AG42" s="146"/>
+      <c r="AH42" s="146"/>
+      <c r="AI42" s="146"/>
+      <c r="AJ42" s="146"/>
+      <c r="AK42" s="146"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="181"/>
-      <c r="AO42" s="182"/>
-      <c r="AP42" s="183"/>
-      <c r="AQ42" s="184"/>
-      <c r="AR42" s="180" t="s">
+      <c r="AN42" s="176"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="178"/>
+      <c r="AQ42" s="179"/>
+      <c r="AR42" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="181"/>
-      <c r="AT42" s="141"/>
-      <c r="AU42" s="142"/>
-      <c r="AV42" s="142"/>
-      <c r="AW42" s="143"/>
+      <c r="AS42" s="176"/>
+      <c r="AT42" s="180"/>
+      <c r="AU42" s="181"/>
+      <c r="AV42" s="181"/>
+      <c r="AW42" s="182"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="164" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="150"/>
+      <c r="V43" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="165"/>
-      <c r="X43" s="165"/>
-      <c r="Y43" s="165"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="167" t="s">
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="168"/>
-      <c r="AD43" s="168"/>
-      <c r="AE43" s="168"/>
-      <c r="AF43" s="168"/>
-      <c r="AG43" s="169"/>
-      <c r="AH43" s="170" t="s">
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="171"/>
-      <c r="AJ43" s="171"/>
-      <c r="AK43" s="171"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="167" t="s">
+      <c r="AI43" s="165"/>
+      <c r="AJ43" s="165"/>
+      <c r="AK43" s="165"/>
+      <c r="AL43" s="166"/>
+      <c r="AM43" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="168"/>
-      <c r="AO43" s="168"/>
-      <c r="AP43" s="168"/>
-      <c r="AQ43" s="168"/>
-      <c r="AR43" s="168"/>
-      <c r="AS43" s="168"/>
-      <c r="AT43" s="168"/>
-      <c r="AU43" s="168"/>
-      <c r="AV43" s="168"/>
-      <c r="AW43" s="173"/>
+      <c r="AN43" s="140"/>
+      <c r="AO43" s="140"/>
+      <c r="AP43" s="140"/>
+      <c r="AQ43" s="140"/>
+      <c r="AR43" s="140"/>
+      <c r="AS43" s="140"/>
+      <c r="AT43" s="140"/>
+      <c r="AU43" s="140"/>
+      <c r="AV43" s="140"/>
+      <c r="AW43" s="141"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -21045,187 +22078,187 @@
       <c r="AW78" s="7"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="147"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="155" t="s">
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="147"/>
-      <c r="M79" s="147"/>
-      <c r="N79" s="147"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="155" t="s">
+      <c r="K79" s="143"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="144"/>
+      <c r="P79" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="147"/>
-      <c r="R79" s="147"/>
-      <c r="S79" s="147"/>
-      <c r="T79" s="147"/>
-      <c r="U79" s="148"/>
-      <c r="V79" s="156" t="s">
+      <c r="Q79" s="143"/>
+      <c r="R79" s="143"/>
+      <c r="S79" s="143"/>
+      <c r="T79" s="143"/>
+      <c r="U79" s="144"/>
+      <c r="V79" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W79" s="157"/>
-      <c r="X79" s="157"/>
-      <c r="Y79" s="157"/>
-      <c r="Z79" s="158"/>
-      <c r="AA79" s="162" t="s">
+      <c r="W79" s="153"/>
+      <c r="X79" s="153"/>
+      <c r="Y79" s="153"/>
+      <c r="Z79" s="154"/>
+      <c r="AA79" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB79" s="147"/>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="147"/>
-      <c r="AE79" s="147"/>
-      <c r="AF79" s="147"/>
-      <c r="AG79" s="147"/>
-      <c r="AH79" s="147"/>
-      <c r="AI79" s="147"/>
-      <c r="AJ79" s="147"/>
-      <c r="AK79" s="147"/>
-      <c r="AL79" s="148"/>
-      <c r="AM79" s="144" t="s">
+      <c r="AB79" s="143"/>
+      <c r="AC79" s="143"/>
+      <c r="AD79" s="143"/>
+      <c r="AE79" s="143"/>
+      <c r="AF79" s="143"/>
+      <c r="AG79" s="143"/>
+      <c r="AH79" s="143"/>
+      <c r="AI79" s="143"/>
+      <c r="AJ79" s="143"/>
+      <c r="AK79" s="143"/>
+      <c r="AL79" s="144"/>
+      <c r="AM79" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN79" s="145"/>
-      <c r="AO79" s="174" t="s">
+      <c r="AN79" s="171"/>
+      <c r="AO79" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP79" s="175"/>
-      <c r="AQ79" s="176"/>
-      <c r="AR79" s="144" t="s">
+      <c r="AP79" s="168"/>
+      <c r="AQ79" s="169"/>
+      <c r="AR79" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="145"/>
-      <c r="AT79" s="177">
+      <c r="AS79" s="171"/>
+      <c r="AT79" s="172">
         <v>44936</v>
       </c>
-      <c r="AU79" s="178"/>
-      <c r="AV79" s="178"/>
-      <c r="AW79" s="179"/>
+      <c r="AU79" s="173"/>
+      <c r="AV79" s="173"/>
+      <c r="AW79" s="174"/>
     </row>
     <row r="80" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A80" s="149"/>
-      <c r="B80" s="150"/>
-      <c r="C80" s="150"/>
-      <c r="D80" s="150"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="150"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="149"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="149"/>
-      <c r="Q80" s="150"/>
-      <c r="R80" s="150"/>
-      <c r="S80" s="150"/>
-      <c r="T80" s="150"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="159"/>
-      <c r="W80" s="160"/>
-      <c r="X80" s="160"/>
-      <c r="Y80" s="160"/>
-      <c r="Z80" s="161"/>
-      <c r="AA80" s="163"/>
-      <c r="AB80" s="150"/>
-      <c r="AC80" s="150"/>
-      <c r="AD80" s="150"/>
-      <c r="AE80" s="150"/>
-      <c r="AF80" s="150"/>
-      <c r="AG80" s="150"/>
-      <c r="AH80" s="150"/>
-      <c r="AI80" s="150"/>
-      <c r="AJ80" s="150"/>
-      <c r="AK80" s="150"/>
-      <c r="AL80" s="151"/>
-      <c r="AM80" s="180" t="s">
+      <c r="A80" s="145"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="145"/>
+      <c r="Q80" s="146"/>
+      <c r="R80" s="146"/>
+      <c r="S80" s="146"/>
+      <c r="T80" s="146"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="155"/>
+      <c r="W80" s="156"/>
+      <c r="X80" s="156"/>
+      <c r="Y80" s="156"/>
+      <c r="Z80" s="157"/>
+      <c r="AA80" s="159"/>
+      <c r="AB80" s="146"/>
+      <c r="AC80" s="146"/>
+      <c r="AD80" s="146"/>
+      <c r="AE80" s="146"/>
+      <c r="AF80" s="146"/>
+      <c r="AG80" s="146"/>
+      <c r="AH80" s="146"/>
+      <c r="AI80" s="146"/>
+      <c r="AJ80" s="146"/>
+      <c r="AK80" s="146"/>
+      <c r="AL80" s="147"/>
+      <c r="AM80" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN80" s="181"/>
-      <c r="AO80" s="182"/>
-      <c r="AP80" s="183"/>
-      <c r="AQ80" s="184"/>
-      <c r="AR80" s="180" t="s">
+      <c r="AN80" s="176"/>
+      <c r="AO80" s="177"/>
+      <c r="AP80" s="178"/>
+      <c r="AQ80" s="179"/>
+      <c r="AR80" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS80" s="181"/>
-      <c r="AT80" s="141"/>
-      <c r="AU80" s="142"/>
-      <c r="AV80" s="142"/>
-      <c r="AW80" s="143"/>
+      <c r="AS80" s="176"/>
+      <c r="AT80" s="180"/>
+      <c r="AU80" s="181"/>
+      <c r="AV80" s="181"/>
+      <c r="AW80" s="182"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="153"/>
-      <c r="N81" s="153"/>
-      <c r="O81" s="154"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="153"/>
-      <c r="R81" s="153"/>
-      <c r="S81" s="153"/>
-      <c r="T81" s="153"/>
-      <c r="U81" s="154"/>
-      <c r="V81" s="164" t="s">
+      <c r="A81" s="148"/>
+      <c r="B81" s="149"/>
+      <c r="C81" s="149"/>
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="149"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="149"/>
+      <c r="S81" s="149"/>
+      <c r="T81" s="149"/>
+      <c r="U81" s="150"/>
+      <c r="V81" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="165"/>
-      <c r="X81" s="165"/>
-      <c r="Y81" s="165"/>
-      <c r="Z81" s="166"/>
-      <c r="AA81" s="167" t="s">
+      <c r="W81" s="161"/>
+      <c r="X81" s="161"/>
+      <c r="Y81" s="161"/>
+      <c r="Z81" s="162"/>
+      <c r="AA81" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="168"/>
-      <c r="AC81" s="168"/>
-      <c r="AD81" s="168"/>
-      <c r="AE81" s="168"/>
-      <c r="AF81" s="168"/>
-      <c r="AG81" s="169"/>
-      <c r="AH81" s="170" t="s">
+      <c r="AB81" s="140"/>
+      <c r="AC81" s="140"/>
+      <c r="AD81" s="140"/>
+      <c r="AE81" s="140"/>
+      <c r="AF81" s="140"/>
+      <c r="AG81" s="163"/>
+      <c r="AH81" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI81" s="171"/>
-      <c r="AJ81" s="171"/>
-      <c r="AK81" s="171"/>
-      <c r="AL81" s="172"/>
-      <c r="AM81" s="167" t="s">
+      <c r="AI81" s="165"/>
+      <c r="AJ81" s="165"/>
+      <c r="AK81" s="165"/>
+      <c r="AL81" s="166"/>
+      <c r="AM81" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN81" s="168"/>
-      <c r="AO81" s="168"/>
-      <c r="AP81" s="168"/>
-      <c r="AQ81" s="168"/>
-      <c r="AR81" s="168"/>
-      <c r="AS81" s="168"/>
-      <c r="AT81" s="168"/>
-      <c r="AU81" s="168"/>
-      <c r="AV81" s="168"/>
-      <c r="AW81" s="173"/>
+      <c r="AN81" s="140"/>
+      <c r="AO81" s="140"/>
+      <c r="AP81" s="140"/>
+      <c r="AQ81" s="140"/>
+      <c r="AR81" s="140"/>
+      <c r="AS81" s="140"/>
+      <c r="AT81" s="140"/>
+      <c r="AU81" s="140"/>
+      <c r="AV81" s="140"/>
+      <c r="AW81" s="141"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A82" s="3"/>
@@ -22339,187 +23372,187 @@
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A119" s="146" t="s">
+      <c r="A119" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="147"/>
-      <c r="C119" s="147"/>
-      <c r="D119" s="147"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="147"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="148"/>
-      <c r="J119" s="155" t="s">
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="143"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="144"/>
+      <c r="J119" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="147"/>
-      <c r="L119" s="147"/>
-      <c r="M119" s="147"/>
-      <c r="N119" s="147"/>
-      <c r="O119" s="148"/>
-      <c r="P119" s="155" t="s">
+      <c r="K119" s="143"/>
+      <c r="L119" s="143"/>
+      <c r="M119" s="143"/>
+      <c r="N119" s="143"/>
+      <c r="O119" s="144"/>
+      <c r="P119" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="147"/>
-      <c r="R119" s="147"/>
-      <c r="S119" s="147"/>
-      <c r="T119" s="147"/>
-      <c r="U119" s="148"/>
-      <c r="V119" s="156" t="s">
+      <c r="Q119" s="143"/>
+      <c r="R119" s="143"/>
+      <c r="S119" s="143"/>
+      <c r="T119" s="143"/>
+      <c r="U119" s="144"/>
+      <c r="V119" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W119" s="157"/>
-      <c r="X119" s="157"/>
-      <c r="Y119" s="157"/>
-      <c r="Z119" s="158"/>
-      <c r="AA119" s="162" t="s">
+      <c r="W119" s="153"/>
+      <c r="X119" s="153"/>
+      <c r="Y119" s="153"/>
+      <c r="Z119" s="154"/>
+      <c r="AA119" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB119" s="147"/>
-      <c r="AC119" s="147"/>
-      <c r="AD119" s="147"/>
-      <c r="AE119" s="147"/>
-      <c r="AF119" s="147"/>
-      <c r="AG119" s="147"/>
-      <c r="AH119" s="147"/>
-      <c r="AI119" s="147"/>
-      <c r="AJ119" s="147"/>
-      <c r="AK119" s="147"/>
-      <c r="AL119" s="148"/>
-      <c r="AM119" s="144" t="s">
+      <c r="AB119" s="143"/>
+      <c r="AC119" s="143"/>
+      <c r="AD119" s="143"/>
+      <c r="AE119" s="143"/>
+      <c r="AF119" s="143"/>
+      <c r="AG119" s="143"/>
+      <c r="AH119" s="143"/>
+      <c r="AI119" s="143"/>
+      <c r="AJ119" s="143"/>
+      <c r="AK119" s="143"/>
+      <c r="AL119" s="144"/>
+      <c r="AM119" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN119" s="145"/>
-      <c r="AO119" s="174" t="s">
+      <c r="AN119" s="171"/>
+      <c r="AO119" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP119" s="175"/>
-      <c r="AQ119" s="176"/>
-      <c r="AR119" s="144" t="s">
+      <c r="AP119" s="168"/>
+      <c r="AQ119" s="169"/>
+      <c r="AR119" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS119" s="145"/>
-      <c r="AT119" s="177">
+      <c r="AS119" s="171"/>
+      <c r="AT119" s="172">
         <v>44936</v>
       </c>
-      <c r="AU119" s="178"/>
-      <c r="AV119" s="178"/>
-      <c r="AW119" s="179"/>
+      <c r="AU119" s="173"/>
+      <c r="AV119" s="173"/>
+      <c r="AW119" s="174"/>
     </row>
     <row r="120" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A120" s="149"/>
-      <c r="B120" s="150"/>
-      <c r="C120" s="150"/>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="151"/>
-      <c r="J120" s="149"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="150"/>
-      <c r="N120" s="150"/>
-      <c r="O120" s="151"/>
-      <c r="P120" s="149"/>
-      <c r="Q120" s="150"/>
-      <c r="R120" s="150"/>
-      <c r="S120" s="150"/>
-      <c r="T120" s="150"/>
-      <c r="U120" s="151"/>
-      <c r="V120" s="159"/>
-      <c r="W120" s="160"/>
-      <c r="X120" s="160"/>
-      <c r="Y120" s="160"/>
-      <c r="Z120" s="161"/>
-      <c r="AA120" s="163"/>
-      <c r="AB120" s="150"/>
-      <c r="AC120" s="150"/>
-      <c r="AD120" s="150"/>
-      <c r="AE120" s="150"/>
-      <c r="AF120" s="150"/>
-      <c r="AG120" s="150"/>
-      <c r="AH120" s="150"/>
-      <c r="AI120" s="150"/>
-      <c r="AJ120" s="150"/>
-      <c r="AK120" s="150"/>
-      <c r="AL120" s="151"/>
-      <c r="AM120" s="180" t="s">
+      <c r="A120" s="145"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="146"/>
+      <c r="I120" s="147"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
+      <c r="L120" s="146"/>
+      <c r="M120" s="146"/>
+      <c r="N120" s="146"/>
+      <c r="O120" s="147"/>
+      <c r="P120" s="145"/>
+      <c r="Q120" s="146"/>
+      <c r="R120" s="146"/>
+      <c r="S120" s="146"/>
+      <c r="T120" s="146"/>
+      <c r="U120" s="147"/>
+      <c r="V120" s="155"/>
+      <c r="W120" s="156"/>
+      <c r="X120" s="156"/>
+      <c r="Y120" s="156"/>
+      <c r="Z120" s="157"/>
+      <c r="AA120" s="159"/>
+      <c r="AB120" s="146"/>
+      <c r="AC120" s="146"/>
+      <c r="AD120" s="146"/>
+      <c r="AE120" s="146"/>
+      <c r="AF120" s="146"/>
+      <c r="AG120" s="146"/>
+      <c r="AH120" s="146"/>
+      <c r="AI120" s="146"/>
+      <c r="AJ120" s="146"/>
+      <c r="AK120" s="146"/>
+      <c r="AL120" s="147"/>
+      <c r="AM120" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN120" s="181"/>
-      <c r="AO120" s="182"/>
-      <c r="AP120" s="183"/>
-      <c r="AQ120" s="184"/>
-      <c r="AR120" s="180" t="s">
+      <c r="AN120" s="176"/>
+      <c r="AO120" s="177"/>
+      <c r="AP120" s="178"/>
+      <c r="AQ120" s="179"/>
+      <c r="AR120" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS120" s="181"/>
-      <c r="AT120" s="141"/>
-      <c r="AU120" s="142"/>
-      <c r="AV120" s="142"/>
-      <c r="AW120" s="143"/>
+      <c r="AS120" s="176"/>
+      <c r="AT120" s="180"/>
+      <c r="AU120" s="181"/>
+      <c r="AV120" s="181"/>
+      <c r="AW120" s="182"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A121" s="152"/>
-      <c r="B121" s="153"/>
-      <c r="C121" s="153"/>
-      <c r="D121" s="153"/>
-      <c r="E121" s="153"/>
-      <c r="F121" s="153"/>
-      <c r="G121" s="153"/>
-      <c r="H121" s="153"/>
-      <c r="I121" s="154"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="153"/>
-      <c r="L121" s="153"/>
-      <c r="M121" s="153"/>
-      <c r="N121" s="153"/>
-      <c r="O121" s="154"/>
-      <c r="P121" s="152"/>
-      <c r="Q121" s="153"/>
-      <c r="R121" s="153"/>
-      <c r="S121" s="153"/>
-      <c r="T121" s="153"/>
-      <c r="U121" s="154"/>
-      <c r="V121" s="164" t="s">
+      <c r="A121" s="148"/>
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+      <c r="F121" s="149"/>
+      <c r="G121" s="149"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
+      <c r="L121" s="149"/>
+      <c r="M121" s="149"/>
+      <c r="N121" s="149"/>
+      <c r="O121" s="150"/>
+      <c r="P121" s="148"/>
+      <c r="Q121" s="149"/>
+      <c r="R121" s="149"/>
+      <c r="S121" s="149"/>
+      <c r="T121" s="149"/>
+      <c r="U121" s="150"/>
+      <c r="V121" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W121" s="165"/>
-      <c r="X121" s="165"/>
-      <c r="Y121" s="165"/>
-      <c r="Z121" s="166"/>
-      <c r="AA121" s="167" t="s">
+      <c r="W121" s="161"/>
+      <c r="X121" s="161"/>
+      <c r="Y121" s="161"/>
+      <c r="Z121" s="162"/>
+      <c r="AA121" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB121" s="168"/>
-      <c r="AC121" s="168"/>
-      <c r="AD121" s="168"/>
-      <c r="AE121" s="168"/>
-      <c r="AF121" s="168"/>
-      <c r="AG121" s="169"/>
-      <c r="AH121" s="170" t="s">
+      <c r="AB121" s="140"/>
+      <c r="AC121" s="140"/>
+      <c r="AD121" s="140"/>
+      <c r="AE121" s="140"/>
+      <c r="AF121" s="140"/>
+      <c r="AG121" s="163"/>
+      <c r="AH121" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI121" s="171"/>
-      <c r="AJ121" s="171"/>
-      <c r="AK121" s="171"/>
-      <c r="AL121" s="172"/>
-      <c r="AM121" s="167" t="s">
+      <c r="AI121" s="165"/>
+      <c r="AJ121" s="165"/>
+      <c r="AK121" s="165"/>
+      <c r="AL121" s="166"/>
+      <c r="AM121" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN121" s="168"/>
-      <c r="AO121" s="168"/>
-      <c r="AP121" s="168"/>
-      <c r="AQ121" s="168"/>
-      <c r="AR121" s="168"/>
-      <c r="AS121" s="168"/>
-      <c r="AT121" s="168"/>
-      <c r="AU121" s="168"/>
-      <c r="AV121" s="168"/>
-      <c r="AW121" s="173"/>
+      <c r="AN121" s="140"/>
+      <c r="AO121" s="140"/>
+      <c r="AP121" s="140"/>
+      <c r="AQ121" s="140"/>
+      <c r="AR121" s="140"/>
+      <c r="AS121" s="140"/>
+      <c r="AT121" s="140"/>
+      <c r="AU121" s="140"/>
+      <c r="AV121" s="140"/>
+      <c r="AW121" s="141"/>
     </row>
     <row r="122" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A122" s="3"/>
@@ -23708,7 +24741,7 @@
       <c r="AG145" s="107"/>
       <c r="AH145" s="107"/>
       <c r="AI145" s="108"/>
-      <c r="AJ145" s="140" t="s">
+      <c r="AJ145" s="135" t="s">
         <v>127</v>
       </c>
       <c r="AK145" s="110"/>
@@ -24031,68 +25064,68 @@
     <row r="152" spans="1:51" ht="13.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="D152" s="6"/>
-      <c r="E152" s="191" t="s">
+      <c r="E152" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="F152" s="192"/>
-      <c r="G152" s="192"/>
-      <c r="H152" s="192"/>
-      <c r="I152" s="192"/>
-      <c r="J152" s="192"/>
-      <c r="K152" s="193"/>
-      <c r="L152" s="194" t="s">
+      <c r="F152" s="190"/>
+      <c r="G152" s="190"/>
+      <c r="H152" s="190"/>
+      <c r="I152" s="190"/>
+      <c r="J152" s="190"/>
+      <c r="K152" s="191"/>
+      <c r="L152" s="192" t="s">
         <v>69</v>
       </c>
-      <c r="M152" s="195"/>
-      <c r="N152" s="195"/>
-      <c r="O152" s="195"/>
-      <c r="P152" s="195"/>
-      <c r="Q152" s="195"/>
-      <c r="R152" s="195"/>
-      <c r="S152" s="195"/>
-      <c r="T152" s="195"/>
-      <c r="U152" s="195"/>
-      <c r="V152" s="195"/>
-      <c r="W152" s="195"/>
-      <c r="X152" s="195"/>
-      <c r="Y152" s="195"/>
-      <c r="Z152" s="195"/>
-      <c r="AA152" s="195"/>
-      <c r="AB152" s="195"/>
-      <c r="AC152" s="195"/>
-      <c r="AD152" s="195"/>
-      <c r="AE152" s="195"/>
-      <c r="AF152" s="195"/>
-      <c r="AG152" s="195"/>
-      <c r="AH152" s="195"/>
-      <c r="AI152" s="195"/>
-      <c r="AJ152" s="195"/>
-      <c r="AK152" s="195"/>
-      <c r="AL152" s="195"/>
-      <c r="AM152" s="195"/>
-      <c r="AN152" s="195"/>
-      <c r="AO152" s="195"/>
-      <c r="AP152" s="195"/>
-      <c r="AQ152" s="195"/>
-      <c r="AR152" s="195"/>
-      <c r="AS152" s="195"/>
-      <c r="AT152" s="195"/>
-      <c r="AU152" s="196"/>
+      <c r="M152" s="193"/>
+      <c r="N152" s="193"/>
+      <c r="O152" s="193"/>
+      <c r="P152" s="193"/>
+      <c r="Q152" s="193"/>
+      <c r="R152" s="193"/>
+      <c r="S152" s="193"/>
+      <c r="T152" s="193"/>
+      <c r="U152" s="193"/>
+      <c r="V152" s="193"/>
+      <c r="W152" s="193"/>
+      <c r="X152" s="193"/>
+      <c r="Y152" s="193"/>
+      <c r="Z152" s="193"/>
+      <c r="AA152" s="193"/>
+      <c r="AB152" s="193"/>
+      <c r="AC152" s="193"/>
+      <c r="AD152" s="193"/>
+      <c r="AE152" s="193"/>
+      <c r="AF152" s="193"/>
+      <c r="AG152" s="193"/>
+      <c r="AH152" s="193"/>
+      <c r="AI152" s="193"/>
+      <c r="AJ152" s="193"/>
+      <c r="AK152" s="193"/>
+      <c r="AL152" s="193"/>
+      <c r="AM152" s="193"/>
+      <c r="AN152" s="193"/>
+      <c r="AO152" s="193"/>
+      <c r="AP152" s="193"/>
+      <c r="AQ152" s="193"/>
+      <c r="AR152" s="193"/>
+      <c r="AS152" s="193"/>
+      <c r="AT152" s="193"/>
+      <c r="AU152" s="194"/>
       <c r="AV152" s="6"/>
       <c r="AW152" s="7"/>
     </row>
     <row r="153" spans="1:51" ht="13.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="D153" s="6"/>
-      <c r="E153" s="197" t="s">
+      <c r="E153" s="195" t="s">
         <v>70</v>
       </c>
-      <c r="F153" s="198"/>
-      <c r="G153" s="198"/>
-      <c r="H153" s="198"/>
-      <c r="I153" s="198"/>
-      <c r="J153" s="198"/>
-      <c r="K153" s="199"/>
+      <c r="F153" s="196"/>
+      <c r="G153" s="196"/>
+      <c r="H153" s="196"/>
+      <c r="I153" s="196"/>
+      <c r="J153" s="196"/>
+      <c r="K153" s="197"/>
       <c r="L153" s="116"/>
       <c r="M153" s="93"/>
       <c r="N153" s="93" t="s">
@@ -24141,13 +25174,13 @@
     <row r="154" spans="1:51" ht="13.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="D154" s="6"/>
-      <c r="E154" s="200"/>
-      <c r="F154" s="201"/>
-      <c r="G154" s="201"/>
-      <c r="H154" s="201"/>
-      <c r="I154" s="201"/>
-      <c r="J154" s="201"/>
-      <c r="K154" s="202"/>
+      <c r="E154" s="198"/>
+      <c r="F154" s="199"/>
+      <c r="G154" s="199"/>
+      <c r="H154" s="199"/>
+      <c r="I154" s="199"/>
+      <c r="J154" s="199"/>
+      <c r="K154" s="200"/>
       <c r="L154" s="117"/>
       <c r="M154" s="118"/>
       <c r="N154" s="118" t="s">
@@ -24196,13 +25229,13 @@
     <row r="155" spans="1:51" ht="13.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="D155" s="6"/>
-      <c r="E155" s="197"/>
-      <c r="F155" s="198"/>
-      <c r="G155" s="198"/>
-      <c r="H155" s="198"/>
-      <c r="I155" s="198"/>
-      <c r="J155" s="198"/>
-      <c r="K155" s="199"/>
+      <c r="E155" s="195"/>
+      <c r="F155" s="196"/>
+      <c r="G155" s="196"/>
+      <c r="H155" s="196"/>
+      <c r="I155" s="196"/>
+      <c r="J155" s="196"/>
+      <c r="K155" s="197"/>
       <c r="L155" s="116"/>
       <c r="M155" s="93"/>
       <c r="N155" s="93" t="s">
@@ -24251,13 +25284,13 @@
     <row r="156" spans="1:51" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="6"/>
-      <c r="E156" s="200"/>
-      <c r="F156" s="201"/>
-      <c r="G156" s="201"/>
-      <c r="H156" s="201"/>
-      <c r="I156" s="201"/>
-      <c r="J156" s="201"/>
-      <c r="K156" s="202"/>
+      <c r="E156" s="198"/>
+      <c r="F156" s="199"/>
+      <c r="G156" s="199"/>
+      <c r="H156" s="199"/>
+      <c r="I156" s="199"/>
+      <c r="J156" s="199"/>
+      <c r="K156" s="200"/>
       <c r="L156" s="117"/>
       <c r="M156" s="118"/>
       <c r="N156" s="118" t="s">
@@ -24463,48 +25496,48 @@
       <c r="F160" s="123"/>
       <c r="G160" s="123"/>
       <c r="H160" s="124"/>
-      <c r="I160" s="191" t="s">
+      <c r="I160" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="J160" s="192"/>
-      <c r="K160" s="192"/>
-      <c r="L160" s="192"/>
-      <c r="M160" s="192"/>
-      <c r="N160" s="192"/>
-      <c r="O160" s="192"/>
-      <c r="P160" s="192"/>
-      <c r="Q160" s="192"/>
-      <c r="R160" s="192"/>
-      <c r="S160" s="192"/>
-      <c r="T160" s="192"/>
-      <c r="U160" s="192"/>
-      <c r="V160" s="192"/>
-      <c r="W160" s="192"/>
-      <c r="X160" s="192"/>
-      <c r="Y160" s="192"/>
-      <c r="Z160" s="192"/>
-      <c r="AA160" s="192"/>
-      <c r="AB160" s="192"/>
-      <c r="AC160" s="192"/>
-      <c r="AD160" s="192"/>
-      <c r="AE160" s="192"/>
-      <c r="AF160" s="192"/>
-      <c r="AG160" s="192"/>
-      <c r="AH160" s="192"/>
-      <c r="AI160" s="193"/>
-      <c r="AJ160" s="191" t="s">
+      <c r="J160" s="190"/>
+      <c r="K160" s="190"/>
+      <c r="L160" s="190"/>
+      <c r="M160" s="190"/>
+      <c r="N160" s="190"/>
+      <c r="O160" s="190"/>
+      <c r="P160" s="190"/>
+      <c r="Q160" s="190"/>
+      <c r="R160" s="190"/>
+      <c r="S160" s="190"/>
+      <c r="T160" s="190"/>
+      <c r="U160" s="190"/>
+      <c r="V160" s="190"/>
+      <c r="W160" s="190"/>
+      <c r="X160" s="190"/>
+      <c r="Y160" s="190"/>
+      <c r="Z160" s="190"/>
+      <c r="AA160" s="190"/>
+      <c r="AB160" s="190"/>
+      <c r="AC160" s="190"/>
+      <c r="AD160" s="190"/>
+      <c r="AE160" s="190"/>
+      <c r="AF160" s="190"/>
+      <c r="AG160" s="190"/>
+      <c r="AH160" s="190"/>
+      <c r="AI160" s="191"/>
+      <c r="AJ160" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="AK160" s="192"/>
-      <c r="AL160" s="192"/>
-      <c r="AM160" s="192"/>
-      <c r="AN160" s="192"/>
-      <c r="AO160" s="192"/>
-      <c r="AP160" s="192"/>
-      <c r="AQ160" s="192"/>
-      <c r="AR160" s="192"/>
-      <c r="AS160" s="192"/>
-      <c r="AT160" s="193"/>
+      <c r="AK160" s="190"/>
+      <c r="AL160" s="190"/>
+      <c r="AM160" s="190"/>
+      <c r="AN160" s="190"/>
+      <c r="AO160" s="190"/>
+      <c r="AP160" s="190"/>
+      <c r="AQ160" s="190"/>
+      <c r="AR160" s="190"/>
+      <c r="AS160" s="190"/>
+      <c r="AT160" s="191"/>
       <c r="AU160" s="83"/>
       <c r="AV160" s="6"/>
       <c r="AW160" s="7"/>
@@ -24512,12 +25545,12 @@
     <row r="161" spans="1:50" ht="13.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="D161" s="84"/>
-      <c r="E161" s="185" t="s">
+      <c r="E161" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="F161" s="186"/>
-      <c r="G161" s="186"/>
-      <c r="H161" s="187"/>
+      <c r="F161" s="184"/>
+      <c r="G161" s="184"/>
+      <c r="H161" s="185"/>
       <c r="I161" s="125" t="s">
         <v>83</v>
       </c>
@@ -24567,12 +25600,12 @@
     <row r="162" spans="1:50" ht="13.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="D162" s="84"/>
-      <c r="E162" s="188" t="s">
+      <c r="E162" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="F162" s="189"/>
-      <c r="G162" s="189"/>
-      <c r="H162" s="190"/>
+      <c r="F162" s="187"/>
+      <c r="G162" s="187"/>
+      <c r="H162" s="188"/>
       <c r="I162" s="129" t="s">
         <v>85</v>
       </c>
@@ -24916,60 +25949,51 @@
       <c r="AW168" s="7"/>
     </row>
     <row r="169" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A169" s="3"/>
-      <c r="D169" s="84"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
-      <c r="K169" s="83"/>
-      <c r="L169" s="83"/>
-      <c r="M169" s="83"/>
-      <c r="N169" s="83"/>
-      <c r="O169" s="83"/>
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="83"/>
-      <c r="S169" s="83"/>
-      <c r="T169" s="83"/>
-      <c r="U169" s="83"/>
-      <c r="V169" s="83"/>
-      <c r="W169" s="83"/>
-      <c r="X169" s="83"/>
-      <c r="Y169" s="83"/>
-      <c r="Z169" s="83"/>
-      <c r="AA169" s="83"/>
-      <c r="AB169" s="83"/>
-      <c r="AC169" s="83"/>
-      <c r="AD169" s="83"/>
-      <c r="AE169" s="15"/>
-      <c r="AF169" s="83"/>
-      <c r="AG169" s="83"/>
-      <c r="AH169" s="83"/>
-      <c r="AI169" s="83"/>
-      <c r="AJ169" s="134"/>
-      <c r="AK169" s="83"/>
-      <c r="AL169" s="83"/>
-      <c r="AM169" s="83"/>
-      <c r="AN169" s="83"/>
-      <c r="AO169" s="83"/>
-      <c r="AP169" s="83"/>
-      <c r="AQ169" s="83"/>
-      <c r="AR169" s="83"/>
-      <c r="AS169" s="83"/>
-      <c r="AT169" s="83"/>
-      <c r="AU169" s="83"/>
-      <c r="AV169" s="6"/>
-      <c r="AW169" s="7"/>
-    </row>
-    <row r="170" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="135"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="137"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="138"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
+      <c r="AD169" s="2"/>
+      <c r="AE169" s="2"/>
+      <c r="AF169" s="2"/>
+      <c r="AG169" s="2"/>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2"/>
+      <c r="AJ169" s="2"/>
+      <c r="AK169" s="2"/>
+      <c r="AL169" s="2"/>
+      <c r="AM169" s="2"/>
+      <c r="AN169" s="2"/>
+      <c r="AO169" s="2"/>
+      <c r="AP169" s="2"/>
+      <c r="AQ169" s="2"/>
+      <c r="AR169" s="2"/>
+      <c r="AS169" s="2"/>
+      <c r="AT169" s="2"/>
+      <c r="AU169" s="2"/>
+      <c r="AX169" s="2"/>
+    </row>
+    <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -25012,97 +26036,6 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
-      <c r="AV170" s="137"/>
-      <c r="AW170" s="139"/>
-    </row>
-    <row r="171" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-      <c r="AC171" s="2"/>
-      <c r="AD171" s="2"/>
-      <c r="AE171" s="2"/>
-      <c r="AF171" s="2"/>
-      <c r="AG171" s="2"/>
-      <c r="AH171" s="2"/>
-      <c r="AI171" s="2"/>
-      <c r="AJ171" s="2"/>
-      <c r="AK171" s="2"/>
-      <c r="AL171" s="2"/>
-      <c r="AM171" s="2"/>
-      <c r="AN171" s="2"/>
-      <c r="AO171" s="2"/>
-      <c r="AP171" s="2"/>
-      <c r="AQ171" s="2"/>
-      <c r="AR171" s="2"/>
-      <c r="AS171" s="2"/>
-      <c r="AT171" s="2"/>
-      <c r="AU171" s="2"/>
-      <c r="AX171" s="2"/>
-    </row>
-    <row r="172" spans="1:50" ht="13.5" customHeight="1">
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2"/>
-      <c r="AD172" s="2"/>
-      <c r="AE172" s="2"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2"/>
-      <c r="AI172" s="2"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
-      <c r="AN172" s="2"/>
-      <c r="AO172" s="2"/>
-      <c r="AP172" s="2"/>
-      <c r="AQ172" s="2"/>
-      <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
-      <c r="AT172" s="2"/>
-      <c r="AU172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="76">
@@ -25199,7 +26132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCD7012-09DA-4BF3-975F-D90E3E341683}">
   <dimension ref="A1:BF172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A54" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Z66" sqref="Z66"/>
     </sheetView>
   </sheetViews>
@@ -25213,187 +26146,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="155" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="155" t="s">
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="156" t="s">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="162" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="144" t="s">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="174" t="s">
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="144" t="s">
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="177">
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="172">
         <v>44936</v>
       </c>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="179"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="180" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="146"/>
+      <c r="AK2" s="146"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="143"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="182"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="164" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="170" t="s">
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="167" t="s">
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="173"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="141"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -26164,187 +27097,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="155" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="155" t="s">
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="156" t="s">
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="158"/>
-      <c r="AA41" s="162" t="s">
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="147"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="147"/>
-      <c r="AH41" s="147"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="147"/>
-      <c r="AL41" s="148"/>
-      <c r="AM41" s="144" t="s">
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="174" t="s">
+      <c r="AN41" s="171"/>
+      <c r="AO41" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="175"/>
-      <c r="AQ41" s="176"/>
-      <c r="AR41" s="144" t="s">
+      <c r="AP41" s="168"/>
+      <c r="AQ41" s="169"/>
+      <c r="AR41" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="145"/>
-      <c r="AT41" s="177">
+      <c r="AS41" s="171"/>
+      <c r="AT41" s="172">
         <v>44936</v>
       </c>
-      <c r="AU41" s="178"/>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="179"/>
+      <c r="AU41" s="173"/>
+      <c r="AV41" s="173"/>
+      <c r="AW41" s="174"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="150"/>
-      <c r="R42" s="150"/>
-      <c r="S42" s="150"/>
-      <c r="T42" s="150"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="159"/>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="163"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="180" t="s">
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
+      <c r="T42" s="146"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="155"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="146"/>
+      <c r="AC42" s="146"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="146"/>
+      <c r="AF42" s="146"/>
+      <c r="AG42" s="146"/>
+      <c r="AH42" s="146"/>
+      <c r="AI42" s="146"/>
+      <c r="AJ42" s="146"/>
+      <c r="AK42" s="146"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="181"/>
-      <c r="AO42" s="182"/>
-      <c r="AP42" s="183"/>
-      <c r="AQ42" s="184"/>
-      <c r="AR42" s="180" t="s">
+      <c r="AN42" s="176"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="178"/>
+      <c r="AQ42" s="179"/>
+      <c r="AR42" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="181"/>
-      <c r="AT42" s="141"/>
-      <c r="AU42" s="142"/>
-      <c r="AV42" s="142"/>
-      <c r="AW42" s="143"/>
+      <c r="AS42" s="176"/>
+      <c r="AT42" s="180"/>
+      <c r="AU42" s="181"/>
+      <c r="AV42" s="181"/>
+      <c r="AW42" s="182"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="164" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="150"/>
+      <c r="V43" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="165"/>
-      <c r="X43" s="165"/>
-      <c r="Y43" s="165"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="167" t="s">
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="168"/>
-      <c r="AD43" s="168"/>
-      <c r="AE43" s="168"/>
-      <c r="AF43" s="168"/>
-      <c r="AG43" s="169"/>
-      <c r="AH43" s="170" t="s">
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="171"/>
-      <c r="AJ43" s="171"/>
-      <c r="AK43" s="171"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="167" t="s">
+      <c r="AI43" s="165"/>
+      <c r="AJ43" s="165"/>
+      <c r="AK43" s="165"/>
+      <c r="AL43" s="166"/>
+      <c r="AM43" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="168"/>
-      <c r="AO43" s="168"/>
-      <c r="AP43" s="168"/>
-      <c r="AQ43" s="168"/>
-      <c r="AR43" s="168"/>
-      <c r="AS43" s="168"/>
-      <c r="AT43" s="168"/>
-      <c r="AU43" s="168"/>
-      <c r="AV43" s="168"/>
-      <c r="AW43" s="173"/>
+      <c r="AN43" s="140"/>
+      <c r="AO43" s="140"/>
+      <c r="AP43" s="140"/>
+      <c r="AQ43" s="140"/>
+      <c r="AR43" s="140"/>
+      <c r="AS43" s="140"/>
+      <c r="AT43" s="140"/>
+      <c r="AU43" s="140"/>
+      <c r="AV43" s="140"/>
+      <c r="AW43" s="141"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -27043,8 +27976,8 @@
       <c r="B59" s="6"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="204" t="s">
+      <c r="E59" s="136"/>
+      <c r="F59" s="137" t="s">
         <v>154</v>
       </c>
       <c r="G59" s="2"/>
@@ -27100,7 +28033,7 @@
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="205" t="s">
+      <c r="F60" s="138" t="s">
         <v>155</v>
       </c>
       <c r="G60" s="6"/>
@@ -27371,48 +28304,48 @@
       <c r="F65" s="123"/>
       <c r="G65" s="123"/>
       <c r="H65" s="124"/>
-      <c r="I65" s="191" t="s">
+      <c r="I65" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="J65" s="192"/>
-      <c r="K65" s="192"/>
-      <c r="L65" s="192"/>
-      <c r="M65" s="192"/>
-      <c r="N65" s="192"/>
-      <c r="O65" s="192"/>
-      <c r="P65" s="192"/>
-      <c r="Q65" s="192"/>
-      <c r="R65" s="192"/>
-      <c r="S65" s="192"/>
-      <c r="T65" s="192"/>
-      <c r="U65" s="192"/>
-      <c r="V65" s="192"/>
-      <c r="W65" s="192"/>
-      <c r="X65" s="192"/>
-      <c r="Y65" s="192"/>
-      <c r="Z65" s="192"/>
-      <c r="AA65" s="192"/>
-      <c r="AB65" s="192"/>
-      <c r="AC65" s="192"/>
-      <c r="AD65" s="192"/>
-      <c r="AE65" s="192"/>
-      <c r="AF65" s="192"/>
-      <c r="AG65" s="192"/>
-      <c r="AH65" s="192"/>
-      <c r="AI65" s="193"/>
-      <c r="AJ65" s="191" t="s">
+      <c r="J65" s="190"/>
+      <c r="K65" s="190"/>
+      <c r="L65" s="190"/>
+      <c r="M65" s="190"/>
+      <c r="N65" s="190"/>
+      <c r="O65" s="190"/>
+      <c r="P65" s="190"/>
+      <c r="Q65" s="190"/>
+      <c r="R65" s="190"/>
+      <c r="S65" s="190"/>
+      <c r="T65" s="190"/>
+      <c r="U65" s="190"/>
+      <c r="V65" s="190"/>
+      <c r="W65" s="190"/>
+      <c r="X65" s="190"/>
+      <c r="Y65" s="190"/>
+      <c r="Z65" s="190"/>
+      <c r="AA65" s="190"/>
+      <c r="AB65" s="190"/>
+      <c r="AC65" s="190"/>
+      <c r="AD65" s="190"/>
+      <c r="AE65" s="190"/>
+      <c r="AF65" s="190"/>
+      <c r="AG65" s="190"/>
+      <c r="AH65" s="190"/>
+      <c r="AI65" s="191"/>
+      <c r="AJ65" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="AK65" s="192"/>
-      <c r="AL65" s="192"/>
-      <c r="AM65" s="192"/>
-      <c r="AN65" s="192"/>
-      <c r="AO65" s="192"/>
-      <c r="AP65" s="192"/>
-      <c r="AQ65" s="192"/>
-      <c r="AR65" s="192"/>
-      <c r="AS65" s="192"/>
-      <c r="AT65" s="193"/>
+      <c r="AK65" s="190"/>
+      <c r="AL65" s="190"/>
+      <c r="AM65" s="190"/>
+      <c r="AN65" s="190"/>
+      <c r="AO65" s="190"/>
+      <c r="AP65" s="190"/>
+      <c r="AQ65" s="190"/>
+      <c r="AR65" s="190"/>
+      <c r="AS65" s="190"/>
+      <c r="AT65" s="191"/>
       <c r="AU65" s="89"/>
       <c r="AW65" s="7"/>
     </row>
@@ -27421,12 +28354,12 @@
       <c r="B66" s="17"/>
       <c r="C66" s="78"/>
       <c r="D66" s="79"/>
-      <c r="E66" s="185" t="s">
+      <c r="E66" s="183" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="186"/>
-      <c r="G66" s="186"/>
-      <c r="H66" s="187"/>
+      <c r="F66" s="184"/>
+      <c r="G66" s="184"/>
+      <c r="H66" s="185"/>
       <c r="I66" s="125" t="s">
         <v>161</v>
       </c>
@@ -27477,12 +28410,12 @@
       <c r="B67" s="17"/>
       <c r="C67" s="78"/>
       <c r="D67" s="79"/>
-      <c r="E67" s="188" t="s">
+      <c r="E67" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="F67" s="189"/>
-      <c r="G67" s="189"/>
-      <c r="H67" s="190"/>
+      <c r="F67" s="187"/>
+      <c r="G67" s="187"/>
+      <c r="H67" s="188"/>
       <c r="I67" s="129" t="s">
         <v>85</v>
       </c>
@@ -32137,6 +33070,8 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="I65:AI65"/>
     <mergeCell ref="AJ65:AT65"/>
     <mergeCell ref="E66:H66"/>
@@ -32152,12 +33087,12 @@
     <mergeCell ref="AM43:AW43"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AT42:AW42"/>
     <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AR2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AM41:AN41"/>
     <mergeCell ref="AM3:AW3"/>
     <mergeCell ref="A41:I43"/>
     <mergeCell ref="J41:O43"/>
@@ -32173,8 +33108,6 @@
     <mergeCell ref="AM42:AN42"/>
     <mergeCell ref="AO42:AQ42"/>
     <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AT42:AW42"/>
-    <mergeCell ref="AM41:AN41"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -32190,10 +33123,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AB429A-8553-48A9-B261-FB0049E254E7}">
-  <dimension ref="A1:BF172"/>
+  <dimension ref="A1:BF170"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BG17" sqref="BG17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A96" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A169" sqref="A169:AW170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -32206,187 +33139,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="155" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="155" t="s">
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="156" t="s">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="143"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="144"/>
+      <c r="V1" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="157"/>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="162" t="s">
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="144" t="s">
+      <c r="AB1" s="143"/>
+      <c r="AC1" s="143"/>
+      <c r="AD1" s="143"/>
+      <c r="AE1" s="143"/>
+      <c r="AF1" s="143"/>
+      <c r="AG1" s="143"/>
+      <c r="AH1" s="143"/>
+      <c r="AI1" s="143"/>
+      <c r="AJ1" s="143"/>
+      <c r="AK1" s="143"/>
+      <c r="AL1" s="144"/>
+      <c r="AM1" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="174" t="s">
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP1" s="175"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="144" t="s">
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="169"/>
+      <c r="AR1" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="177">
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="172">
         <v>44936</v>
       </c>
-      <c r="AU1" s="178"/>
-      <c r="AV1" s="178"/>
-      <c r="AW1" s="179"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A2" s="149"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="160"/>
-      <c r="X2" s="160"/>
-      <c r="Y2" s="160"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="150"/>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="150"/>
-      <c r="AK2" s="150"/>
-      <c r="AL2" s="151"/>
-      <c r="AM2" s="180" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="159"/>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="146"/>
+      <c r="AD2" s="146"/>
+      <c r="AE2" s="146"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="146"/>
+      <c r="AH2" s="146"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="146"/>
+      <c r="AK2" s="146"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="184"/>
-      <c r="AR2" s="180" t="s">
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="179"/>
+      <c r="AR2" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="141"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="143"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="182"/>
     </row>
     <row r="3" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="152"/>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="153"/>
-      <c r="U3" s="154"/>
-      <c r="V3" s="164" t="s">
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="148"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="149"/>
+      <c r="S3" s="149"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167" t="s">
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="170" t="s">
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="167" t="s">
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="166"/>
+      <c r="AM3" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="173"/>
+      <c r="AN3" s="140"/>
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="141"/>
     </row>
     <row r="4" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A4" s="3"/>
@@ -33157,187 +34090,187 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="155" t="s">
+      <c r="B41" s="143"/>
+      <c r="C41" s="143"/>
+      <c r="D41" s="143"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="147"/>
-      <c r="L41" s="147"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="155" t="s">
+      <c r="K41" s="143"/>
+      <c r="L41" s="143"/>
+      <c r="M41" s="143"/>
+      <c r="N41" s="143"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="147"/>
-      <c r="R41" s="147"/>
-      <c r="S41" s="147"/>
-      <c r="T41" s="147"/>
-      <c r="U41" s="148"/>
-      <c r="V41" s="156" t="s">
+      <c r="Q41" s="143"/>
+      <c r="R41" s="143"/>
+      <c r="S41" s="143"/>
+      <c r="T41" s="143"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="157"/>
-      <c r="Z41" s="158"/>
-      <c r="AA41" s="162" t="s">
+      <c r="W41" s="153"/>
+      <c r="X41" s="153"/>
+      <c r="Y41" s="153"/>
+      <c r="Z41" s="154"/>
+      <c r="AA41" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="147"/>
-      <c r="AC41" s="147"/>
-      <c r="AD41" s="147"/>
-      <c r="AE41" s="147"/>
-      <c r="AF41" s="147"/>
-      <c r="AG41" s="147"/>
-      <c r="AH41" s="147"/>
-      <c r="AI41" s="147"/>
-      <c r="AJ41" s="147"/>
-      <c r="AK41" s="147"/>
-      <c r="AL41" s="148"/>
-      <c r="AM41" s="144" t="s">
+      <c r="AB41" s="143"/>
+      <c r="AC41" s="143"/>
+      <c r="AD41" s="143"/>
+      <c r="AE41" s="143"/>
+      <c r="AF41" s="143"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="143"/>
+      <c r="AI41" s="143"/>
+      <c r="AJ41" s="143"/>
+      <c r="AK41" s="143"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="145"/>
-      <c r="AO41" s="174" t="s">
+      <c r="AN41" s="171"/>
+      <c r="AO41" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP41" s="175"/>
-      <c r="AQ41" s="176"/>
-      <c r="AR41" s="144" t="s">
+      <c r="AP41" s="168"/>
+      <c r="AQ41" s="169"/>
+      <c r="AR41" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS41" s="145"/>
-      <c r="AT41" s="177">
+      <c r="AS41" s="171"/>
+      <c r="AT41" s="172">
         <v>44936</v>
       </c>
-      <c r="AU41" s="178"/>
-      <c r="AV41" s="178"/>
-      <c r="AW41" s="179"/>
+      <c r="AU41" s="173"/>
+      <c r="AV41" s="173"/>
+      <c r="AW41" s="174"/>
     </row>
     <row r="42" spans="1:58" ht="13.5" customHeight="1">
-      <c r="A42" s="149"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151"/>
-      <c r="P42" s="149"/>
-      <c r="Q42" s="150"/>
-      <c r="R42" s="150"/>
-      <c r="S42" s="150"/>
-      <c r="T42" s="150"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="159"/>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="163"/>
-      <c r="AB42" s="150"/>
-      <c r="AC42" s="150"/>
-      <c r="AD42" s="150"/>
-      <c r="AE42" s="150"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="150"/>
-      <c r="AH42" s="150"/>
-      <c r="AI42" s="150"/>
-      <c r="AJ42" s="150"/>
-      <c r="AK42" s="150"/>
-      <c r="AL42" s="151"/>
-      <c r="AM42" s="180" t="s">
+      <c r="A42" s="145"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="146"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="145"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
+      <c r="T42" s="146"/>
+      <c r="U42" s="147"/>
+      <c r="V42" s="155"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="159"/>
+      <c r="AB42" s="146"/>
+      <c r="AC42" s="146"/>
+      <c r="AD42" s="146"/>
+      <c r="AE42" s="146"/>
+      <c r="AF42" s="146"/>
+      <c r="AG42" s="146"/>
+      <c r="AH42" s="146"/>
+      <c r="AI42" s="146"/>
+      <c r="AJ42" s="146"/>
+      <c r="AK42" s="146"/>
+      <c r="AL42" s="147"/>
+      <c r="AM42" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN42" s="181"/>
-      <c r="AO42" s="182"/>
-      <c r="AP42" s="183"/>
-      <c r="AQ42" s="184"/>
-      <c r="AR42" s="180" t="s">
+      <c r="AN42" s="176"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="178"/>
+      <c r="AQ42" s="179"/>
+      <c r="AR42" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS42" s="181"/>
-      <c r="AT42" s="141"/>
-      <c r="AU42" s="142"/>
-      <c r="AV42" s="142"/>
-      <c r="AW42" s="143"/>
+      <c r="AS42" s="176"/>
+      <c r="AT42" s="180"/>
+      <c r="AU42" s="181"/>
+      <c r="AV42" s="181"/>
+      <c r="AW42" s="182"/>
     </row>
     <row r="43" spans="1:58" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="152"/>
-      <c r="B43" s="153"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="153"/>
-      <c r="L43" s="153"/>
-      <c r="M43" s="153"/>
-      <c r="N43" s="153"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="153"/>
-      <c r="R43" s="153"/>
-      <c r="S43" s="153"/>
-      <c r="T43" s="153"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="164" t="s">
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
+      <c r="N43" s="149"/>
+      <c r="O43" s="150"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="149"/>
+      <c r="R43" s="149"/>
+      <c r="S43" s="149"/>
+      <c r="T43" s="149"/>
+      <c r="U43" s="150"/>
+      <c r="V43" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="165"/>
-      <c r="X43" s="165"/>
-      <c r="Y43" s="165"/>
-      <c r="Z43" s="166"/>
-      <c r="AA43" s="167" t="s">
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="162"/>
+      <c r="AA43" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB43" s="168"/>
-      <c r="AC43" s="168"/>
-      <c r="AD43" s="168"/>
-      <c r="AE43" s="168"/>
-      <c r="AF43" s="168"/>
-      <c r="AG43" s="169"/>
-      <c r="AH43" s="170" t="s">
+      <c r="AB43" s="140"/>
+      <c r="AC43" s="140"/>
+      <c r="AD43" s="140"/>
+      <c r="AE43" s="140"/>
+      <c r="AF43" s="140"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI43" s="171"/>
-      <c r="AJ43" s="171"/>
-      <c r="AK43" s="171"/>
-      <c r="AL43" s="172"/>
-      <c r="AM43" s="167" t="s">
+      <c r="AI43" s="165"/>
+      <c r="AJ43" s="165"/>
+      <c r="AK43" s="165"/>
+      <c r="AL43" s="166"/>
+      <c r="AM43" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN43" s="168"/>
-      <c r="AO43" s="168"/>
-      <c r="AP43" s="168"/>
-      <c r="AQ43" s="168"/>
-      <c r="AR43" s="168"/>
-      <c r="AS43" s="168"/>
-      <c r="AT43" s="168"/>
-      <c r="AU43" s="168"/>
-      <c r="AV43" s="168"/>
-      <c r="AW43" s="173"/>
+      <c r="AN43" s="140"/>
+      <c r="AO43" s="140"/>
+      <c r="AP43" s="140"/>
+      <c r="AQ43" s="140"/>
+      <c r="AR43" s="140"/>
+      <c r="AS43" s="140"/>
+      <c r="AT43" s="140"/>
+      <c r="AU43" s="140"/>
+      <c r="AV43" s="140"/>
+      <c r="AW43" s="141"/>
     </row>
     <row r="44" spans="1:58" ht="13.5" customHeight="1" thickTop="1">
       <c r="A44" s="3"/>
@@ -35065,187 +35998,187 @@
       <c r="AW78" s="7"/>
     </row>
     <row r="79" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A79" s="146" t="s">
+      <c r="A79" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="147"/>
-      <c r="C79" s="147"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="148"/>
-      <c r="J79" s="155" t="s">
+      <c r="B79" s="143"/>
+      <c r="C79" s="143"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="144"/>
+      <c r="J79" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="147"/>
-      <c r="L79" s="147"/>
-      <c r="M79" s="147"/>
-      <c r="N79" s="147"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="155" t="s">
+      <c r="K79" s="143"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+      <c r="O79" s="144"/>
+      <c r="P79" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q79" s="147"/>
-      <c r="R79" s="147"/>
-      <c r="S79" s="147"/>
-      <c r="T79" s="147"/>
-      <c r="U79" s="148"/>
-      <c r="V79" s="156" t="s">
+      <c r="Q79" s="143"/>
+      <c r="R79" s="143"/>
+      <c r="S79" s="143"/>
+      <c r="T79" s="143"/>
+      <c r="U79" s="144"/>
+      <c r="V79" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W79" s="157"/>
-      <c r="X79" s="157"/>
-      <c r="Y79" s="157"/>
-      <c r="Z79" s="158"/>
-      <c r="AA79" s="162" t="s">
+      <c r="W79" s="153"/>
+      <c r="X79" s="153"/>
+      <c r="Y79" s="153"/>
+      <c r="Z79" s="154"/>
+      <c r="AA79" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB79" s="147"/>
-      <c r="AC79" s="147"/>
-      <c r="AD79" s="147"/>
-      <c r="AE79" s="147"/>
-      <c r="AF79" s="147"/>
-      <c r="AG79" s="147"/>
-      <c r="AH79" s="147"/>
-      <c r="AI79" s="147"/>
-      <c r="AJ79" s="147"/>
-      <c r="AK79" s="147"/>
-      <c r="AL79" s="148"/>
-      <c r="AM79" s="144" t="s">
+      <c r="AB79" s="143"/>
+      <c r="AC79" s="143"/>
+      <c r="AD79" s="143"/>
+      <c r="AE79" s="143"/>
+      <c r="AF79" s="143"/>
+      <c r="AG79" s="143"/>
+      <c r="AH79" s="143"/>
+      <c r="AI79" s="143"/>
+      <c r="AJ79" s="143"/>
+      <c r="AK79" s="143"/>
+      <c r="AL79" s="144"/>
+      <c r="AM79" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN79" s="145"/>
-      <c r="AO79" s="174" t="s">
+      <c r="AN79" s="171"/>
+      <c r="AO79" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP79" s="175"/>
-      <c r="AQ79" s="176"/>
-      <c r="AR79" s="144" t="s">
+      <c r="AP79" s="168"/>
+      <c r="AQ79" s="169"/>
+      <c r="AR79" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS79" s="145"/>
-      <c r="AT79" s="177">
+      <c r="AS79" s="171"/>
+      <c r="AT79" s="172">
         <v>44936</v>
       </c>
-      <c r="AU79" s="178"/>
-      <c r="AV79" s="178"/>
-      <c r="AW79" s="179"/>
+      <c r="AU79" s="173"/>
+      <c r="AV79" s="173"/>
+      <c r="AW79" s="174"/>
     </row>
     <row r="80" spans="1:49" ht="13.5" customHeight="1">
-      <c r="A80" s="149"/>
-      <c r="B80" s="150"/>
-      <c r="C80" s="150"/>
-      <c r="D80" s="150"/>
-      <c r="E80" s="150"/>
-      <c r="F80" s="150"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="150"/>
-      <c r="I80" s="151"/>
-      <c r="J80" s="149"/>
-      <c r="K80" s="150"/>
-      <c r="L80" s="150"/>
-      <c r="M80" s="150"/>
-      <c r="N80" s="150"/>
-      <c r="O80" s="151"/>
-      <c r="P80" s="149"/>
-      <c r="Q80" s="150"/>
-      <c r="R80" s="150"/>
-      <c r="S80" s="150"/>
-      <c r="T80" s="150"/>
-      <c r="U80" s="151"/>
-      <c r="V80" s="159"/>
-      <c r="W80" s="160"/>
-      <c r="X80" s="160"/>
-      <c r="Y80" s="160"/>
-      <c r="Z80" s="161"/>
-      <c r="AA80" s="163"/>
-      <c r="AB80" s="150"/>
-      <c r="AC80" s="150"/>
-      <c r="AD80" s="150"/>
-      <c r="AE80" s="150"/>
-      <c r="AF80" s="150"/>
-      <c r="AG80" s="150"/>
-      <c r="AH80" s="150"/>
-      <c r="AI80" s="150"/>
-      <c r="AJ80" s="150"/>
-      <c r="AK80" s="150"/>
-      <c r="AL80" s="151"/>
-      <c r="AM80" s="180" t="s">
+      <c r="A80" s="145"/>
+      <c r="B80" s="146"/>
+      <c r="C80" s="146"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="146"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="146"/>
+      <c r="H80" s="146"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="146"/>
+      <c r="L80" s="146"/>
+      <c r="M80" s="146"/>
+      <c r="N80" s="146"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="145"/>
+      <c r="Q80" s="146"/>
+      <c r="R80" s="146"/>
+      <c r="S80" s="146"/>
+      <c r="T80" s="146"/>
+      <c r="U80" s="147"/>
+      <c r="V80" s="155"/>
+      <c r="W80" s="156"/>
+      <c r="X80" s="156"/>
+      <c r="Y80" s="156"/>
+      <c r="Z80" s="157"/>
+      <c r="AA80" s="159"/>
+      <c r="AB80" s="146"/>
+      <c r="AC80" s="146"/>
+      <c r="AD80" s="146"/>
+      <c r="AE80" s="146"/>
+      <c r="AF80" s="146"/>
+      <c r="AG80" s="146"/>
+      <c r="AH80" s="146"/>
+      <c r="AI80" s="146"/>
+      <c r="AJ80" s="146"/>
+      <c r="AK80" s="146"/>
+      <c r="AL80" s="147"/>
+      <c r="AM80" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN80" s="181"/>
-      <c r="AO80" s="182"/>
-      <c r="AP80" s="183"/>
-      <c r="AQ80" s="184"/>
-      <c r="AR80" s="180" t="s">
+      <c r="AN80" s="176"/>
+      <c r="AO80" s="177"/>
+      <c r="AP80" s="178"/>
+      <c r="AQ80" s="179"/>
+      <c r="AR80" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS80" s="181"/>
-      <c r="AT80" s="141"/>
-      <c r="AU80" s="142"/>
-      <c r="AV80" s="142"/>
-      <c r="AW80" s="143"/>
+      <c r="AS80" s="176"/>
+      <c r="AT80" s="180"/>
+      <c r="AU80" s="181"/>
+      <c r="AV80" s="181"/>
+      <c r="AW80" s="182"/>
     </row>
     <row r="81" spans="1:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A81" s="152"/>
-      <c r="B81" s="153"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="153"/>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="154"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="153"/>
-      <c r="N81" s="153"/>
-      <c r="O81" s="154"/>
-      <c r="P81" s="152"/>
-      <c r="Q81" s="153"/>
-      <c r="R81" s="153"/>
-      <c r="S81" s="153"/>
-      <c r="T81" s="153"/>
-      <c r="U81" s="154"/>
-      <c r="V81" s="164" t="s">
+      <c r="A81" s="148"/>
+      <c r="B81" s="149"/>
+      <c r="C81" s="149"/>
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="149"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="149"/>
+      <c r="I81" s="150"/>
+      <c r="J81" s="148"/>
+      <c r="K81" s="149"/>
+      <c r="L81" s="149"/>
+      <c r="M81" s="149"/>
+      <c r="N81" s="149"/>
+      <c r="O81" s="150"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="149"/>
+      <c r="S81" s="149"/>
+      <c r="T81" s="149"/>
+      <c r="U81" s="150"/>
+      <c r="V81" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W81" s="165"/>
-      <c r="X81" s="165"/>
-      <c r="Y81" s="165"/>
-      <c r="Z81" s="166"/>
-      <c r="AA81" s="167" t="s">
+      <c r="W81" s="161"/>
+      <c r="X81" s="161"/>
+      <c r="Y81" s="161"/>
+      <c r="Z81" s="162"/>
+      <c r="AA81" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB81" s="168"/>
-      <c r="AC81" s="168"/>
-      <c r="AD81" s="168"/>
-      <c r="AE81" s="168"/>
-      <c r="AF81" s="168"/>
-      <c r="AG81" s="169"/>
-      <c r="AH81" s="170" t="s">
+      <c r="AB81" s="140"/>
+      <c r="AC81" s="140"/>
+      <c r="AD81" s="140"/>
+      <c r="AE81" s="140"/>
+      <c r="AF81" s="140"/>
+      <c r="AG81" s="163"/>
+      <c r="AH81" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI81" s="171"/>
-      <c r="AJ81" s="171"/>
-      <c r="AK81" s="171"/>
-      <c r="AL81" s="172"/>
-      <c r="AM81" s="167" t="s">
+      <c r="AI81" s="165"/>
+      <c r="AJ81" s="165"/>
+      <c r="AK81" s="165"/>
+      <c r="AL81" s="166"/>
+      <c r="AM81" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN81" s="168"/>
-      <c r="AO81" s="168"/>
-      <c r="AP81" s="168"/>
-      <c r="AQ81" s="168"/>
-      <c r="AR81" s="168"/>
-      <c r="AS81" s="168"/>
-      <c r="AT81" s="168"/>
-      <c r="AU81" s="168"/>
-      <c r="AV81" s="168"/>
-      <c r="AW81" s="173"/>
+      <c r="AN81" s="140"/>
+      <c r="AO81" s="140"/>
+      <c r="AP81" s="140"/>
+      <c r="AQ81" s="140"/>
+      <c r="AR81" s="140"/>
+      <c r="AS81" s="140"/>
+      <c r="AT81" s="140"/>
+      <c r="AU81" s="140"/>
+      <c r="AV81" s="140"/>
+      <c r="AW81" s="141"/>
     </row>
     <row r="82" spans="1:49" ht="13.5" customHeight="1" thickTop="1">
       <c r="A82" s="3"/>
@@ -36355,187 +37288,187 @@
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A119" s="146" t="s">
+      <c r="A119" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="147"/>
-      <c r="C119" s="147"/>
-      <c r="D119" s="147"/>
-      <c r="E119" s="147"/>
-      <c r="F119" s="147"/>
-      <c r="G119" s="147"/>
-      <c r="H119" s="147"/>
-      <c r="I119" s="148"/>
-      <c r="J119" s="155" t="s">
+      <c r="B119" s="143"/>
+      <c r="C119" s="143"/>
+      <c r="D119" s="143"/>
+      <c r="E119" s="143"/>
+      <c r="F119" s="143"/>
+      <c r="G119" s="143"/>
+      <c r="H119" s="143"/>
+      <c r="I119" s="144"/>
+      <c r="J119" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="K119" s="147"/>
-      <c r="L119" s="147"/>
-      <c r="M119" s="147"/>
-      <c r="N119" s="147"/>
-      <c r="O119" s="148"/>
-      <c r="P119" s="155" t="s">
+      <c r="K119" s="143"/>
+      <c r="L119" s="143"/>
+      <c r="M119" s="143"/>
+      <c r="N119" s="143"/>
+      <c r="O119" s="144"/>
+      <c r="P119" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="Q119" s="147"/>
-      <c r="R119" s="147"/>
-      <c r="S119" s="147"/>
-      <c r="T119" s="147"/>
-      <c r="U119" s="148"/>
-      <c r="V119" s="156" t="s">
+      <c r="Q119" s="143"/>
+      <c r="R119" s="143"/>
+      <c r="S119" s="143"/>
+      <c r="T119" s="143"/>
+      <c r="U119" s="144"/>
+      <c r="V119" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="W119" s="157"/>
-      <c r="X119" s="157"/>
-      <c r="Y119" s="157"/>
-      <c r="Z119" s="158"/>
-      <c r="AA119" s="162" t="s">
+      <c r="W119" s="153"/>
+      <c r="X119" s="153"/>
+      <c r="Y119" s="153"/>
+      <c r="Z119" s="154"/>
+      <c r="AA119" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="AB119" s="147"/>
-      <c r="AC119" s="147"/>
-      <c r="AD119" s="147"/>
-      <c r="AE119" s="147"/>
-      <c r="AF119" s="147"/>
-      <c r="AG119" s="147"/>
-      <c r="AH119" s="147"/>
-      <c r="AI119" s="147"/>
-      <c r="AJ119" s="147"/>
-      <c r="AK119" s="147"/>
-      <c r="AL119" s="148"/>
-      <c r="AM119" s="144" t="s">
+      <c r="AB119" s="143"/>
+      <c r="AC119" s="143"/>
+      <c r="AD119" s="143"/>
+      <c r="AE119" s="143"/>
+      <c r="AF119" s="143"/>
+      <c r="AG119" s="143"/>
+      <c r="AH119" s="143"/>
+      <c r="AI119" s="143"/>
+      <c r="AJ119" s="143"/>
+      <c r="AK119" s="143"/>
+      <c r="AL119" s="144"/>
+      <c r="AM119" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="AN119" s="145"/>
-      <c r="AO119" s="174" t="s">
+      <c r="AN119" s="171"/>
+      <c r="AO119" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="AP119" s="175"/>
-      <c r="AQ119" s="176"/>
-      <c r="AR119" s="144" t="s">
+      <c r="AP119" s="168"/>
+      <c r="AQ119" s="169"/>
+      <c r="AR119" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="AS119" s="145"/>
-      <c r="AT119" s="177">
+      <c r="AS119" s="171"/>
+      <c r="AT119" s="172">
         <v>44936</v>
       </c>
-      <c r="AU119" s="178"/>
-      <c r="AV119" s="178"/>
-      <c r="AW119" s="179"/>
+      <c r="AU119" s="173"/>
+      <c r="AV119" s="173"/>
+      <c r="AW119" s="174"/>
     </row>
     <row r="120" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A120" s="149"/>
-      <c r="B120" s="150"/>
-      <c r="C120" s="150"/>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="151"/>
-      <c r="J120" s="149"/>
-      <c r="K120" s="150"/>
-      <c r="L120" s="150"/>
-      <c r="M120" s="150"/>
-      <c r="N120" s="150"/>
-      <c r="O120" s="151"/>
-      <c r="P120" s="149"/>
-      <c r="Q120" s="150"/>
-      <c r="R120" s="150"/>
-      <c r="S120" s="150"/>
-      <c r="T120" s="150"/>
-      <c r="U120" s="151"/>
-      <c r="V120" s="159"/>
-      <c r="W120" s="160"/>
-      <c r="X120" s="160"/>
-      <c r="Y120" s="160"/>
-      <c r="Z120" s="161"/>
-      <c r="AA120" s="163"/>
-      <c r="AB120" s="150"/>
-      <c r="AC120" s="150"/>
-      <c r="AD120" s="150"/>
-      <c r="AE120" s="150"/>
-      <c r="AF120" s="150"/>
-      <c r="AG120" s="150"/>
-      <c r="AH120" s="150"/>
-      <c r="AI120" s="150"/>
-      <c r="AJ120" s="150"/>
-      <c r="AK120" s="150"/>
-      <c r="AL120" s="151"/>
-      <c r="AM120" s="180" t="s">
+      <c r="A120" s="145"/>
+      <c r="B120" s="146"/>
+      <c r="C120" s="146"/>
+      <c r="D120" s="146"/>
+      <c r="E120" s="146"/>
+      <c r="F120" s="146"/>
+      <c r="G120" s="146"/>
+      <c r="H120" s="146"/>
+      <c r="I120" s="147"/>
+      <c r="J120" s="145"/>
+      <c r="K120" s="146"/>
+      <c r="L120" s="146"/>
+      <c r="M120" s="146"/>
+      <c r="N120" s="146"/>
+      <c r="O120" s="147"/>
+      <c r="P120" s="145"/>
+      <c r="Q120" s="146"/>
+      <c r="R120" s="146"/>
+      <c r="S120" s="146"/>
+      <c r="T120" s="146"/>
+      <c r="U120" s="147"/>
+      <c r="V120" s="155"/>
+      <c r="W120" s="156"/>
+      <c r="X120" s="156"/>
+      <c r="Y120" s="156"/>
+      <c r="Z120" s="157"/>
+      <c r="AA120" s="159"/>
+      <c r="AB120" s="146"/>
+      <c r="AC120" s="146"/>
+      <c r="AD120" s="146"/>
+      <c r="AE120" s="146"/>
+      <c r="AF120" s="146"/>
+      <c r="AG120" s="146"/>
+      <c r="AH120" s="146"/>
+      <c r="AI120" s="146"/>
+      <c r="AJ120" s="146"/>
+      <c r="AK120" s="146"/>
+      <c r="AL120" s="147"/>
+      <c r="AM120" s="175" t="s">
         <v>8</v>
       </c>
-      <c r="AN120" s="181"/>
-      <c r="AO120" s="182"/>
-      <c r="AP120" s="183"/>
-      <c r="AQ120" s="184"/>
-      <c r="AR120" s="180" t="s">
+      <c r="AN120" s="176"/>
+      <c r="AO120" s="177"/>
+      <c r="AP120" s="178"/>
+      <c r="AQ120" s="179"/>
+      <c r="AR120" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="AS120" s="181"/>
-      <c r="AT120" s="141"/>
-      <c r="AU120" s="142"/>
-      <c r="AV120" s="142"/>
-      <c r="AW120" s="143"/>
+      <c r="AS120" s="176"/>
+      <c r="AT120" s="180"/>
+      <c r="AU120" s="181"/>
+      <c r="AV120" s="181"/>
+      <c r="AW120" s="182"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A121" s="152"/>
-      <c r="B121" s="153"/>
-      <c r="C121" s="153"/>
-      <c r="D121" s="153"/>
-      <c r="E121" s="153"/>
-      <c r="F121" s="153"/>
-      <c r="G121" s="153"/>
-      <c r="H121" s="153"/>
-      <c r="I121" s="154"/>
-      <c r="J121" s="152"/>
-      <c r="K121" s="153"/>
-      <c r="L121" s="153"/>
-      <c r="M121" s="153"/>
-      <c r="N121" s="153"/>
-      <c r="O121" s="154"/>
-      <c r="P121" s="152"/>
-      <c r="Q121" s="153"/>
-      <c r="R121" s="153"/>
-      <c r="S121" s="153"/>
-      <c r="T121" s="153"/>
-      <c r="U121" s="154"/>
-      <c r="V121" s="164" t="s">
+      <c r="A121" s="148"/>
+      <c r="B121" s="149"/>
+      <c r="C121" s="149"/>
+      <c r="D121" s="149"/>
+      <c r="E121" s="149"/>
+      <c r="F121" s="149"/>
+      <c r="G121" s="149"/>
+      <c r="H121" s="149"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="148"/>
+      <c r="K121" s="149"/>
+      <c r="L121" s="149"/>
+      <c r="M121" s="149"/>
+      <c r="N121" s="149"/>
+      <c r="O121" s="150"/>
+      <c r="P121" s="148"/>
+      <c r="Q121" s="149"/>
+      <c r="R121" s="149"/>
+      <c r="S121" s="149"/>
+      <c r="T121" s="149"/>
+      <c r="U121" s="150"/>
+      <c r="V121" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="W121" s="165"/>
-      <c r="X121" s="165"/>
-      <c r="Y121" s="165"/>
-      <c r="Z121" s="166"/>
-      <c r="AA121" s="167" t="s">
+      <c r="W121" s="161"/>
+      <c r="X121" s="161"/>
+      <c r="Y121" s="161"/>
+      <c r="Z121" s="162"/>
+      <c r="AA121" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="AB121" s="168"/>
-      <c r="AC121" s="168"/>
-      <c r="AD121" s="168"/>
-      <c r="AE121" s="168"/>
-      <c r="AF121" s="168"/>
-      <c r="AG121" s="169"/>
-      <c r="AH121" s="170" t="s">
+      <c r="AB121" s="140"/>
+      <c r="AC121" s="140"/>
+      <c r="AD121" s="140"/>
+      <c r="AE121" s="140"/>
+      <c r="AF121" s="140"/>
+      <c r="AG121" s="163"/>
+      <c r="AH121" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="AI121" s="171"/>
-      <c r="AJ121" s="171"/>
-      <c r="AK121" s="171"/>
-      <c r="AL121" s="172"/>
-      <c r="AM121" s="167" t="s">
+      <c r="AI121" s="165"/>
+      <c r="AJ121" s="165"/>
+      <c r="AK121" s="165"/>
+      <c r="AL121" s="166"/>
+      <c r="AM121" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="AN121" s="168"/>
-      <c r="AO121" s="168"/>
-      <c r="AP121" s="168"/>
-      <c r="AQ121" s="168"/>
-      <c r="AR121" s="168"/>
-      <c r="AS121" s="168"/>
-      <c r="AT121" s="168"/>
-      <c r="AU121" s="168"/>
-      <c r="AV121" s="168"/>
-      <c r="AW121" s="173"/>
+      <c r="AN121" s="140"/>
+      <c r="AO121" s="140"/>
+      <c r="AP121" s="140"/>
+      <c r="AQ121" s="140"/>
+      <c r="AR121" s="140"/>
+      <c r="AS121" s="140"/>
+      <c r="AT121" s="140"/>
+      <c r="AU121" s="140"/>
+      <c r="AV121" s="140"/>
+      <c r="AW121" s="141"/>
     </row>
     <row r="122" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
       <c r="A122" s="3"/>
@@ -38871,60 +39804,51 @@
       <c r="AW168" s="7"/>
     </row>
     <row r="169" spans="1:50" ht="13.5" customHeight="1">
-      <c r="A169" s="3"/>
-      <c r="D169" s="84"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
-      <c r="K169" s="83"/>
-      <c r="L169" s="83"/>
-      <c r="M169" s="83"/>
-      <c r="N169" s="83"/>
-      <c r="O169" s="83"/>
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="83"/>
-      <c r="S169" s="83"/>
-      <c r="T169" s="83"/>
-      <c r="U169" s="83"/>
-      <c r="V169" s="83"/>
-      <c r="W169" s="83"/>
-      <c r="X169" s="83"/>
-      <c r="Y169" s="83"/>
-      <c r="Z169" s="83"/>
-      <c r="AA169" s="83"/>
-      <c r="AB169" s="83"/>
-      <c r="AC169" s="83"/>
-      <c r="AD169" s="83"/>
-      <c r="AE169" s="15"/>
-      <c r="AF169" s="83"/>
-      <c r="AG169" s="83"/>
-      <c r="AH169" s="83"/>
-      <c r="AI169" s="83"/>
-      <c r="AJ169" s="134"/>
-      <c r="AK169" s="83"/>
-      <c r="AL169" s="83"/>
-      <c r="AM169" s="83"/>
-      <c r="AN169" s="83"/>
-      <c r="AO169" s="83"/>
-      <c r="AP169" s="83"/>
-      <c r="AQ169" s="83"/>
-      <c r="AR169" s="83"/>
-      <c r="AS169" s="83"/>
-      <c r="AT169" s="83"/>
-      <c r="AU169" s="83"/>
-      <c r="AV169" s="6"/>
-      <c r="AW169" s="7"/>
-    </row>
-    <row r="170" spans="1:50" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A170" s="135"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="137"/>
-      <c r="D170" s="2"/>
-      <c r="E170" s="138"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="2"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="2"/>
+      <c r="Q169" s="2"/>
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+      <c r="AC169" s="2"/>
+      <c r="AD169" s="2"/>
+      <c r="AE169" s="2"/>
+      <c r="AF169" s="2"/>
+      <c r="AG169" s="2"/>
+      <c r="AH169" s="2"/>
+      <c r="AI169" s="2"/>
+      <c r="AJ169" s="2"/>
+      <c r="AK169" s="2"/>
+      <c r="AL169" s="2"/>
+      <c r="AM169" s="2"/>
+      <c r="AN169" s="2"/>
+      <c r="AO169" s="2"/>
+      <c r="AP169" s="2"/>
+      <c r="AQ169" s="2"/>
+      <c r="AR169" s="2"/>
+      <c r="AS169" s="2"/>
+      <c r="AT169" s="2"/>
+      <c r="AU169" s="2"/>
+      <c r="AX169" s="2"/>
+    </row>
+    <row r="170" spans="1:50" ht="13.5" customHeight="1">
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -38967,97 +39891,6 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
-      <c r="AV170" s="137"/>
-      <c r="AW170" s="139"/>
-    </row>
-    <row r="171" spans="1:50" ht="13.5" customHeight="1" thickTop="1">
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-      <c r="AB171" s="2"/>
-      <c r="AC171" s="2"/>
-      <c r="AD171" s="2"/>
-      <c r="AE171" s="2"/>
-      <c r="AF171" s="2"/>
-      <c r="AG171" s="2"/>
-      <c r="AH171" s="2"/>
-      <c r="AI171" s="2"/>
-      <c r="AJ171" s="2"/>
-      <c r="AK171" s="2"/>
-      <c r="AL171" s="2"/>
-      <c r="AM171" s="2"/>
-      <c r="AN171" s="2"/>
-      <c r="AO171" s="2"/>
-      <c r="AP171" s="2"/>
-      <c r="AQ171" s="2"/>
-      <c r="AR171" s="2"/>
-      <c r="AS171" s="2"/>
-      <c r="AT171" s="2"/>
-      <c r="AU171" s="2"/>
-      <c r="AX171" s="2"/>
-    </row>
-    <row r="172" spans="1:50" ht="13.5" customHeight="1">
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-      <c r="AB172" s="2"/>
-      <c r="AC172" s="2"/>
-      <c r="AD172" s="2"/>
-      <c r="AE172" s="2"/>
-      <c r="AF172" s="2"/>
-      <c r="AG172" s="2"/>
-      <c r="AH172" s="2"/>
-      <c r="AI172" s="2"/>
-      <c r="AJ172" s="2"/>
-      <c r="AK172" s="2"/>
-      <c r="AL172" s="2"/>
-      <c r="AM172" s="2"/>
-      <c r="AN172" s="2"/>
-      <c r="AO172" s="2"/>
-      <c r="AP172" s="2"/>
-      <c r="AQ172" s="2"/>
-      <c r="AR172" s="2"/>
-      <c r="AS172" s="2"/>
-      <c r="AT172" s="2"/>
-      <c r="AU172" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="68">
